--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T528"/>
+  <dimension ref="A1:T532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N234" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O234" t="n">
         <v>10000</v>
       </c>
-      <c r="O234" t="n">
-        <v>11000</v>
-      </c>
       <c r="P234" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N235" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O235" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P235" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N236" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O236" t="n">
         <v>10000</v>
       </c>
-      <c r="O236" t="n">
-        <v>11000</v>
-      </c>
       <c r="P236" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
         <v>10000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E241" t="n">
         <v>8</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,7 +19644,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N241" t="n">
         <v>9000</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E242" t="n">
         <v>8</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19724,7 +19724,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N242" t="n">
         <v>10000</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E243" t="n">
         <v>8</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N243" t="n">
         <v>9000</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E248" t="n">
         <v>8</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N248" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O248" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E249" t="n">
         <v>8</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N249" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P249" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E250" t="n">
         <v>8</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20367,13 +20367,13 @@
         <v>100</v>
       </c>
       <c r="N250" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O250" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E251" t="n">
         <v>8</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N251" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O251" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P251" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O252" t="n">
         <v>9000</v>
       </c>
       <c r="P252" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E256" t="n">
         <v>8</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P256" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20927,13 +20927,13 @@
         <v>100</v>
       </c>
       <c r="N257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E258" t="n">
         <v>8</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P258" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E259" t="n">
         <v>8</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21087,13 +21087,13 @@
         <v>100</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O259" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P259" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
         <v>10000</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N263" t="n">
         <v>9000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E264" t="n">
         <v>8</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21487,13 +21487,13 @@
         <v>200</v>
       </c>
       <c r="N264" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P264" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E265" t="n">
         <v>8</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21567,13 +21567,13 @@
         <v>100</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E266" t="n">
         <v>8</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P266" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E267" t="n">
         <v>8</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P272" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T272" t="n">
         <v>16</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E273" t="n">
         <v>8</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T273" t="n">
         <v>16</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E274" t="n">
         <v>8</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
         <v>9000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T274" t="n">
         <v>16</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E275" t="n">
         <v>8</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N276" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
         <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E280" t="n">
         <v>8</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N280" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P280" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T280" t="n">
         <v>16</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E281" t="n">
         <v>8</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T281" t="n">
         <v>16</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E282" t="n">
         <v>8</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N282" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O282" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P282" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T282" t="n">
         <v>16</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E283" t="n">
         <v>8</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T283" t="n">
         <v>16</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>100</v>
       </c>
       <c r="N284" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O284" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P284" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T284" t="n">
         <v>16</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>100</v>
       </c>
       <c r="N285" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O285" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P285" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T285" t="n">
         <v>16</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E286" t="n">
         <v>8</v>
@@ -23235,25 +23235,25 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N286" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O286" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P286" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T286" t="n">
         <v>16</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E287" t="n">
         <v>8</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>100</v>
       </c>
       <c r="N287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T287" t="n">
         <v>16</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N288" t="n">
         <v>10000</v>
       </c>
       <c r="O288" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P288" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T288" t="n">
         <v>16</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E289" t="n">
         <v>8</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23487,13 +23487,13 @@
         <v>100</v>
       </c>
       <c r="N289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T289" t="n">
         <v>16</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E292" t="n">
         <v>8</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N292" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
         <v>11000</v>
       </c>
       <c r="P292" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T292" t="n">
         <v>16</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E293" t="n">
         <v>8</v>
@@ -23795,12 +23795,12 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E294" t="n">
         <v>8</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N294" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P294" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T294" t="n">
         <v>16</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E295" t="n">
         <v>8</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N295" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O295" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P295" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T295" t="n">
         <v>16</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N296" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O296" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P296" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T296" t="n">
         <v>16</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>100</v>
       </c>
       <c r="N297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P297" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T297" t="n">
         <v>16</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>100</v>
       </c>
       <c r="N298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P298" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T298" t="n">
         <v>16</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N299" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O299" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P299" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T299" t="n">
         <v>16</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E302" t="n">
         <v>8</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N302" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O302" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P302" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T302" t="n">
         <v>16</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E303" t="n">
         <v>8</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>100</v>
       </c>
       <c r="N303" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O303" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P303" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T303" t="n">
         <v>16</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E304" t="n">
         <v>8</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>100</v>
       </c>
       <c r="N304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T304" t="n">
         <v>16</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E305" t="n">
         <v>8</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>100</v>
       </c>
       <c r="N305" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O305" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T305" t="n">
         <v>16</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N306" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O306" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P306" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T306" t="n">
         <v>16</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N307" t="n">
         <v>9000</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,7 +25004,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N308" t="n">
         <v>7000</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N309" t="n">
         <v>9000</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N310" t="n">
         <v>7000</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N311" t="n">
         <v>9000</v>
       </c>
       <c r="O311" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P311" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25262,11 +25262,11 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T311" t="n">
         <v>16</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25327,13 +25327,13 @@
         <v>50</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25342,11 +25342,11 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T312" t="n">
         <v>16</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N313" t="n">
         <v>9000</v>
       </c>
       <c r="O313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P313" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T313" t="n">
         <v>16</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25487,13 +25487,13 @@
         <v>50</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25502,11 +25502,11 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T314" t="n">
         <v>16</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O317" t="n">
         <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T317" t="n">
         <v>16</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N319" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O319" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T319" t="n">
         <v>16</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25982,11 +25982,11 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
         <v>16</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N321" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O321" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T321" t="n">
         <v>16</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P322" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26142,11 +26142,11 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T322" t="n">
         <v>16</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
         <v>8000</v>
       </c>
       <c r="O323" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P323" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T323" t="n">
         <v>16</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
         <v>8000</v>
       </c>
       <c r="O325" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T325" t="n">
         <v>16</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N327" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O327" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P327" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T327" t="n">
         <v>16</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26607,13 +26607,13 @@
         <v>100</v>
       </c>
       <c r="N328" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O328" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P328" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T328" t="n">
         <v>16</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O329" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P329" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T329" t="n">
         <v>16</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E330" t="n">
         <v>8</v>
@@ -26767,13 +26767,13 @@
         <v>100</v>
       </c>
       <c r="N330" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O330" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P330" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T330" t="n">
         <v>16</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E331" t="n">
         <v>8</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N331" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P331" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T331" t="n">
         <v>16</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O332" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P332" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T332" t="n">
         <v>16</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E333" t="n">
         <v>8</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O333" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P333" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T333" t="n">
         <v>16</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N334" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O334" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P334" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T334" t="n">
         <v>16</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -27315,25 +27315,25 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O337" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P337" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T337" t="n">
         <v>16</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>50</v>
       </c>
       <c r="N338" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O338" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P338" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
         <v>16</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N339" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O339" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T339" t="n">
         <v>16</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -27555,25 +27555,25 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>50</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O340" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P340" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T340" t="n">
         <v>16</v>
@@ -27635,25 +27635,25 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>50</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T341" t="n">
         <v>16</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
         <v>50</v>
       </c>
       <c r="N342" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O342" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P342" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T342" t="n">
         <v>16</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N343" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P343" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T343" t="n">
         <v>16</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M344" t="n">
         <v>50</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T344" t="n">
         <v>16</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N345" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
         <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T345" t="n">
         <v>16</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N347" t="n">
         <v>9000</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N348" t="n">
         <v>8000</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N349" t="n">
         <v>9000</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -28364,7 +28364,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N350" t="n">
         <v>8000</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
         <v>9000</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N352" t="n">
         <v>8000</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N353" t="n">
         <v>9000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N354" t="n">
         <v>8000</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28927,13 +28927,13 @@
         <v>100</v>
       </c>
       <c r="N357" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O357" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P357" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T357" t="n">
         <v>16</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29007,13 +29007,13 @@
         <v>50</v>
       </c>
       <c r="N358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T358" t="n">
         <v>16</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44420</v>
+        <v>44434</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N359" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="T359" t="n">
         <v>16</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44420</v>
+        <v>44434</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N360" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O360" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P360" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T360" t="n">
         <v>16</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E361" t="n">
         <v>8</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,17 +29244,17 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N361" t="n">
         <v>8000</v>
       </c>
       <c r="O361" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P361" t="n">
         <v>8500</v>
       </c>
-      <c r="P361" t="n">
-        <v>8250</v>
-      </c>
       <c r="Q361" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="T361" t="n">
         <v>16</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E362" t="n">
         <v>8</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N362" t="n">
         <v>7000</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -29407,13 +29407,13 @@
         <v>200</v>
       </c>
       <c r="N363" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O363" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P363" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="T363" t="n">
         <v>16</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -29487,13 +29487,13 @@
         <v>100</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T364" t="n">
         <v>16</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -29567,13 +29567,13 @@
         <v>200</v>
       </c>
       <c r="N365" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P365" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="T365" t="n">
         <v>16</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -29647,13 +29647,13 @@
         <v>100</v>
       </c>
       <c r="N366" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O366" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P366" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T366" t="n">
         <v>16</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30527,13 +30527,13 @@
         <v>200</v>
       </c>
       <c r="N377" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P377" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30607,13 +30607,13 @@
         <v>100</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30847,13 +30847,13 @@
         <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30927,13 +30927,13 @@
         <v>100</v>
       </c>
       <c r="N382" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T382" t="n">
         <v>16</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44441</v>
+        <v>44341</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N397" t="n">
         <v>9000</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N398" t="n">
         <v>8000</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N401" t="n">
         <v>9000</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N402" t="n">
         <v>8000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N407" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
         <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
         <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N411" t="n">
         <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33327,13 +33327,13 @@
         <v>100</v>
       </c>
       <c r="N412" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O412" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P412" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N413" t="n">
         <v>10000</v>
       </c>
       <c r="O413" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P413" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44273</v>
+        <v>44351</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -33487,13 +33487,13 @@
         <v>100</v>
       </c>
       <c r="N414" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P414" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
         <v>100</v>
       </c>
       <c r="N416" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P416" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
         <v>100</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N420" t="n">
         <v>10000</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N421" t="n">
         <v>8000</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N422" t="n">
         <v>10000</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N423" t="n">
         <v>8000</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
         <v>50</v>
       </c>
       <c r="N426" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N427" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O427" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P427" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N430" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O430" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P430" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N437" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O437" t="n">
         <v>9000</v>
       </c>
       <c r="P437" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O439" t="n">
         <v>9000</v>
       </c>
       <c r="P439" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N441" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
         <v>9000</v>
       </c>
       <c r="P441" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N443" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
         <v>9000</v>
       </c>
       <c r="P443" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N447" t="n">
         <v>9000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P447" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E448" t="n">
         <v>8</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36207,13 +36207,13 @@
         <v>100</v>
       </c>
       <c r="N448" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P448" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E449" t="n">
         <v>8</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N449" t="n">
         <v>9000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36367,13 +36367,13 @@
         <v>100</v>
       </c>
       <c r="N450" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P450" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37727,13 +37727,13 @@
         <v>200</v>
       </c>
       <c r="N467" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O467" t="n">
         <v>10000</v>
       </c>
-      <c r="O467" t="n">
-        <v>11000</v>
-      </c>
       <c r="P467" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37807,13 +37807,13 @@
         <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O468" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P468" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37887,13 +37887,13 @@
         <v>200</v>
       </c>
       <c r="N469" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O469" t="n">
         <v>10000</v>
       </c>
-      <c r="O469" t="n">
-        <v>11000</v>
-      </c>
       <c r="P469" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37967,13 +37967,13 @@
         <v>100</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O470" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P471" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N472" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P472" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N473" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P473" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E474" t="n">
         <v>8</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N475" t="n">
         <v>9000</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N476" t="n">
         <v>8000</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N477" t="n">
         <v>9000</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N478" t="n">
         <v>8000</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N479" t="n">
         <v>9000</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N480" t="n">
         <v>8000</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,7 +38844,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N481" t="n">
         <v>9000</v>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S481" t="n">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,38 +38915,38 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
+        <v>100</v>
+      </c>
+      <c r="N482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S482" t="n">
         <v>500</v>
-      </c>
-      <c r="N482" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O482" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P482" t="n">
-        <v>9500</v>
-      </c>
-      <c r="Q482" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R482" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S482" t="n">
-        <v>594</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N483" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E484" t="n">
         <v>8</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,7 +39084,7 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N484" t="n">
         <v>8000</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,7 +39244,7 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N486" t="n">
         <v>9000</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N488" t="n">
         <v>8000</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N490" t="n">
         <v>9000</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,7 +39724,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N492" t="n">
         <v>8000</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
         <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N494" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O494" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
         <v>50</v>
       </c>
       <c r="N495" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E496" t="n">
         <v>8</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
         <v>100</v>
       </c>
       <c r="N496" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O496" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P496" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E497" t="n">
         <v>8</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E498" t="n">
         <v>8</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N498" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P498" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
         <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P505" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40835,12 +40835,12 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
         <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N508" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41167,13 +41167,13 @@
         <v>100</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
         <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
         <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P512" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
         <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
         <v>100</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
         <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
         <v>100</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
         <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M518" t="n">
         <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41887,13 +41887,13 @@
         <v>100</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41967,13 +41967,13 @@
         <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44400</v>
+        <v>44314</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44400</v>
+        <v>44314</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42127,13 +42127,13 @@
         <v>100</v>
       </c>
       <c r="N522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42287,13 +42287,13 @@
         <v>100</v>
       </c>
       <c r="N524" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P524" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N525" t="n">
         <v>8000</v>
       </c>
       <c r="O525" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P525" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N527" t="n">
         <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P527" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42629,6 +42629,326 @@
         <v>438</v>
       </c>
       <c r="T528" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>11</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D529" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E529" t="n">
+        <v>8</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M529" t="n">
+        <v>100</v>
+      </c>
+      <c r="N529" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O529" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P529" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S529" t="n">
+        <v>500</v>
+      </c>
+      <c r="T529" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>11</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E530" t="n">
+        <v>8</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M530" t="n">
+        <v>100</v>
+      </c>
+      <c r="N530" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O530" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P530" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q530" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S530" t="n">
+        <v>438</v>
+      </c>
+      <c r="T530" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>11</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E531" t="n">
+        <v>8</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M531" t="n">
+        <v>100</v>
+      </c>
+      <c r="N531" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O531" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P531" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q531" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S531" t="n">
+        <v>500</v>
+      </c>
+      <c r="T531" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>11</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E532" t="n">
+        <v>8</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M532" t="n">
+        <v>100</v>
+      </c>
+      <c r="N532" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O532" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P532" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q532" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S532" t="n">
+        <v>438</v>
+      </c>
+      <c r="T532" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T532"/>
+  <dimension ref="A1:T534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42207,13 +42207,13 @@
         <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P523" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N524" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O524" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P524" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O525" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P525" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42447,13 +42447,13 @@
         <v>100</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N529" t="n">
         <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P529" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42949,6 +42949,166 @@
         <v>438</v>
       </c>
       <c r="T532" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>11</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E533" t="n">
+        <v>8</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M533" t="n">
+        <v>100</v>
+      </c>
+      <c r="N533" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O533" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P533" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S533" t="n">
+        <v>500</v>
+      </c>
+      <c r="T533" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>11</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E534" t="n">
+        <v>8</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M534" t="n">
+        <v>100</v>
+      </c>
+      <c r="N534" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O534" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P534" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q534" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S534" t="n">
+        <v>438</v>
+      </c>
+      <c r="T534" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T534"/>
+  <dimension ref="A1:T540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N471" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O471" t="n">
         <v>10000</v>
       </c>
-      <c r="O471" t="n">
-        <v>11000</v>
-      </c>
       <c r="P471" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O472" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N473" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O473" t="n">
         <v>10000</v>
       </c>
-      <c r="O473" t="n">
-        <v>11000</v>
-      </c>
       <c r="P473" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E474" t="n">
         <v>8</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O474" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P474" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P477" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N478" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P478" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44442</v>
+        <v>44161</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38687,13 +38687,13 @@
         <v>200</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P479" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44442</v>
+        <v>44161</v>
       </c>
       <c r="E480" t="n">
         <v>8</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38767,13 +38767,13 @@
         <v>100</v>
       </c>
       <c r="N480" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,7 +38844,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N481" t="n">
         <v>9000</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N482" t="n">
         <v>8000</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E484" t="n">
         <v>8</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E485" t="n">
         <v>8</v>
@@ -39164,7 +39164,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N485" t="n">
         <v>9000</v>
@@ -39182,7 +39182,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S485" t="n">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E486" t="n">
         <v>8</v>
@@ -39240,33 +39240,33 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
+        <v>100</v>
+      </c>
+      <c r="N486" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O486" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P486" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S486" t="n">
         <v>500</v>
-      </c>
-      <c r="N486" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O486" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P486" t="n">
-        <v>9500</v>
-      </c>
-      <c r="Q486" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R486" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S486" t="n">
-        <v>594</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N487" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O487" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P487" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N488" t="n">
         <v>8000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39502,7 +39502,7 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S489" t="n">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N492" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N493" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N496" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
         <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N498" t="n">
         <v>8000</v>
@@ -40222,7 +40222,7 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S498" t="n">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E499" t="n">
         <v>8</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N499" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O499" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N500" t="n">
         <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P500" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
         <v>100</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P502" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
         <v>100</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,12 +41155,12 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
         <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P511" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
         <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
         <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N514" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
         <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
         <v>100</v>
       </c>
       <c r="N516" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P516" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
         <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O517" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
         <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O518" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P518" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41967,13 +41967,13 @@
         <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O520" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P520" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
         <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P521" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
         <v>100</v>
       </c>
       <c r="N522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42200,7 +42200,7 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
@@ -42210,10 +42210,10 @@
         <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P523" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42367,13 +42367,13 @@
         <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42447,13 +42447,13 @@
         <v>100</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P526" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44400</v>
+        <v>44314</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N527" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O527" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44400</v>
+        <v>44314</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42607,13 +42607,13 @@
         <v>100</v>
       </c>
       <c r="N528" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O529" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P529" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42847,13 +42847,13 @@
         <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O531" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42927,13 +42927,13 @@
         <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
         <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P533" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43109,6 +43109,486 @@
         <v>438</v>
       </c>
       <c r="T534" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>11</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E535" t="n">
+        <v>8</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>200</v>
+      </c>
+      <c r="N535" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O535" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P535" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S535" t="n">
+        <v>531</v>
+      </c>
+      <c r="T535" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>11</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E536" t="n">
+        <v>8</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>100</v>
+      </c>
+      <c r="N536" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O536" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P536" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S536" t="n">
+        <v>438</v>
+      </c>
+      <c r="T536" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>11</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E537" t="n">
+        <v>8</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M537" t="n">
+        <v>100</v>
+      </c>
+      <c r="N537" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O537" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P537" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S537" t="n">
+        <v>500</v>
+      </c>
+      <c r="T537" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>11</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D538" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E538" t="n">
+        <v>8</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M538" t="n">
+        <v>100</v>
+      </c>
+      <c r="N538" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O538" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P538" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S538" t="n">
+        <v>438</v>
+      </c>
+      <c r="T538" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>11</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E539" t="n">
+        <v>8</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M539" t="n">
+        <v>100</v>
+      </c>
+      <c r="N539" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O539" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P539" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S539" t="n">
+        <v>500</v>
+      </c>
+      <c r="T539" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>11</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E540" t="n">
+        <v>8</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M540" t="n">
+        <v>100</v>
+      </c>
+      <c r="N540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q540" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S540" t="n">
+        <v>438</v>
+      </c>
+      <c r="T540" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T544"/>
+  <dimension ref="A1:T548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -30435,25 +30435,25 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
         <v>200</v>
       </c>
       <c r="N376" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O376" t="n">
         <v>10000</v>
       </c>
-      <c r="O376" t="n">
-        <v>11000</v>
-      </c>
       <c r="P376" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N378" t="n">
         <v>9000</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N379" t="n">
         <v>8000</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N380" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P380" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44447</v>
+        <v>44265</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P381" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N382" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T382" t="n">
         <v>16</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N383" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O383" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P383" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T383" t="n">
         <v>16</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N384" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T384" t="n">
         <v>16</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N385" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O385" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O388" t="n">
         <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
         <v>8000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N391" t="n">
         <v>7000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E392" t="n">
         <v>8</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31727,13 +31727,13 @@
         <v>100</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O392" t="n">
         <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N393" t="n">
         <v>7000</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N398" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O398" t="n">
         <v>9000</v>
       </c>
-      <c r="O398" t="n">
-        <v>10000</v>
-      </c>
       <c r="P398" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T399" t="n">
         <v>16</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N400" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O400" t="n">
         <v>9000</v>
       </c>
-      <c r="O400" t="n">
-        <v>10000</v>
-      </c>
       <c r="P400" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32687,13 +32687,13 @@
         <v>200</v>
       </c>
       <c r="N404" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T404" t="n">
         <v>16</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32767,13 +32767,13 @@
         <v>100</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O405" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32847,13 +32847,13 @@
         <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32927,13 +32927,13 @@
         <v>100</v>
       </c>
       <c r="N407" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O407" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P407" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N409" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N410" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O410" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N411" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O414" t="n">
         <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N416" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O416" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N417" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
         <v>50</v>
       </c>
       <c r="N419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O420" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P420" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
         <v>100</v>
       </c>
       <c r="N421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
         <v>100</v>
       </c>
       <c r="N422" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P422" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N423" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O423" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P423" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N424" t="n">
         <v>9000</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N425" t="n">
         <v>7000</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N426" t="n">
         <v>9000</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,7 +34524,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N427" t="n">
         <v>7000</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N428" t="n">
         <v>9000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P428" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N430" t="n">
         <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P430" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
         <v>100</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N438" t="n">
         <v>9000</v>
       </c>
       <c r="O438" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
         <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35727,13 +35727,13 @@
         <v>100</v>
       </c>
       <c r="N442" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P442" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35887,13 +35887,13 @@
         <v>100</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E446" t="n">
         <v>8</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36047,13 +36047,13 @@
         <v>100</v>
       </c>
       <c r="N446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N447" t="n">
         <v>8000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P447" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N449" t="n">
         <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36527,13 +36527,13 @@
         <v>100</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -36687,13 +36687,13 @@
         <v>100</v>
       </c>
       <c r="N454" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O454" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P454" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
         <v>11000</v>
       </c>
       <c r="P455" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E456" t="n">
         <v>8</v>
@@ -36835,12 +36835,12 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E457" t="n">
         <v>8</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P457" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -36995,12 +36995,12 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N459" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O459" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P459" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E464" t="n">
         <v>8</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E465" t="n">
         <v>8</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37567,13 +37567,13 @@
         <v>100</v>
       </c>
       <c r="N465" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P465" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E466" t="n">
         <v>8</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O466" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P466" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37727,13 +37727,13 @@
         <v>100</v>
       </c>
       <c r="N467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37807,13 +37807,13 @@
         <v>200</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P468" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37887,13 +37887,13 @@
         <v>100</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37967,13 +37967,13 @@
         <v>200</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P470" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38047,13 +38047,13 @@
         <v>100</v>
       </c>
       <c r="N471" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
         <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
         <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N476" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
         <v>100</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
         <v>100</v>
       </c>
       <c r="N478" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N479" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O479" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
         <v>100</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
         <v>100</v>
       </c>
       <c r="N482" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O482" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P482" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E486" t="n">
         <v>8</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N486" t="n">
         <v>9000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P486" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39327,13 +39327,13 @@
         <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O487" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P487" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N488" t="n">
         <v>9000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P488" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39487,13 +39487,13 @@
         <v>100</v>
       </c>
       <c r="N489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,7 +39724,7 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N492" t="n">
         <v>9000</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,7 +39804,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N493" t="n">
         <v>8000</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O494" t="n">
         <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
         <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E496" t="n">
         <v>8</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
         <v>100</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E497" t="n">
         <v>8</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P503" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40687,13 +40687,13 @@
         <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O504" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P504" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40847,13 +40847,13 @@
         <v>100</v>
       </c>
       <c r="N506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N509" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O509" t="n">
         <v>11000</v>
       </c>
       <c r="P509" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,12 +41155,12 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N511" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P511" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,12 +41315,12 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N513" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O513" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P513" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O518" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P518" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41887,13 +41887,13 @@
         <v>100</v>
       </c>
       <c r="N519" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O519" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P519" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42047,13 +42047,13 @@
         <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N524" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O524" t="n">
         <v>11000</v>
       </c>
       <c r="P524" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,12 +42355,12 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P526" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,12 +42515,12 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N528" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O528" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P528" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N529" t="n">
         <v>9000</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,7 +42764,7 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N530" t="n">
         <v>7000</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,7 +42844,7 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N531" t="n">
         <v>9000</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
         <v>7000</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N533" t="n">
         <v>9000</v>
       </c>
       <c r="O533" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P533" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O534" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P534" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N535" t="n">
         <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E536" t="n">
         <v>8</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P536" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N539" t="n">
         <v>9000</v>
       </c>
       <c r="O539" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43564,7 +43564,7 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N540" t="n">
         <v>8000</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N541" t="n">
         <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
         <v>8000</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43909,6 +43909,326 @@
         <v>500</v>
       </c>
       <c r="T544" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>11</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D545" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E545" t="n">
+        <v>8</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M545" t="n">
+        <v>50</v>
+      </c>
+      <c r="N545" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O545" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P545" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S545" t="n">
+        <v>562</v>
+      </c>
+      <c r="T545" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>11</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E546" t="n">
+        <v>8</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M546" t="n">
+        <v>50</v>
+      </c>
+      <c r="N546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P546" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S546" t="n">
+        <v>500</v>
+      </c>
+      <c r="T546" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>11</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E547" t="n">
+        <v>8</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M547" t="n">
+        <v>50</v>
+      </c>
+      <c r="N547" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O547" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P547" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S547" t="n">
+        <v>562</v>
+      </c>
+      <c r="T547" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>11</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E548" t="n">
+        <v>8</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M548" t="n">
+        <v>50</v>
+      </c>
+      <c r="N548" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O548" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P548" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S548" t="n">
+        <v>500</v>
+      </c>
+      <c r="T548" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T548"/>
+  <dimension ref="A1:T554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -30447,13 +30447,13 @@
         <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P376" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E377" t="n">
         <v>8</v>
@@ -30527,13 +30527,13 @@
         <v>100</v>
       </c>
       <c r="N377" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P377" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N378" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P378" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N379" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O379" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P379" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44265</v>
+        <v>44460</v>
       </c>
       <c r="E380" t="n">
         <v>8</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N380" t="n">
         <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44265</v>
+        <v>44460</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O381" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P381" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -30924,7 +30924,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
         <v>9000</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N383" t="n">
         <v>8000</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N384" t="n">
         <v>9000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N385" t="n">
         <v>8000</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44390</v>
+        <v>44265</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -31235,25 +31235,25 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
         <v>200</v>
       </c>
       <c r="N386" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P386" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="T386" t="n">
         <v>16</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44390</v>
+        <v>44265</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P387" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T387" t="n">
         <v>16</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N388" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E389" t="n">
         <v>8</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T389" t="n">
         <v>16</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E390" t="n">
         <v>8</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N390" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O390" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E391" t="n">
         <v>8</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O391" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P391" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N392" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O392" t="n">
         <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
         <v>8000</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N395" t="n">
         <v>7000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N396" t="n">
         <v>8000</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N397" t="n">
         <v>7000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E398" t="n">
         <v>8</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32207,13 +32207,13 @@
         <v>100</v>
       </c>
       <c r="N398" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O398" t="n">
         <v>9000</v>
       </c>
       <c r="P398" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E399" t="n">
         <v>8</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N399" t="n">
         <v>7000</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N402" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O402" t="n">
         <v>9000</v>
       </c>
-      <c r="O402" t="n">
-        <v>10000</v>
-      </c>
       <c r="P402" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T402" t="n">
         <v>16</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N404" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O404" t="n">
         <v>9000</v>
       </c>
-      <c r="O404" t="n">
-        <v>10000</v>
-      </c>
       <c r="P404" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T404" t="n">
         <v>16</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N406" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O406" t="n">
         <v>9000</v>
       </c>
-      <c r="O406" t="n">
-        <v>10000</v>
-      </c>
       <c r="P406" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -33007,13 +33007,13 @@
         <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -33087,13 +33087,13 @@
         <v>100</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -33167,13 +33167,13 @@
         <v>200</v>
       </c>
       <c r="N410" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44166</v>
+        <v>44308</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -33247,13 +33247,13 @@
         <v>100</v>
       </c>
       <c r="N411" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N412" t="n">
         <v>9000</v>
@@ -33342,7 +33342,7 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S412" t="n">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N413" t="n">
         <v>8000</v>
@@ -33422,7 +33422,7 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S413" t="n">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N414" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O418" t="n">
         <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N421" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34062,11 +34062,11 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
         <v>100</v>
       </c>
       <c r="N422" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O422" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
         <v>50</v>
       </c>
       <c r="N423" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P426" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
         <v>100</v>
       </c>
       <c r="N427" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O427" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P427" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N428" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O428" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P428" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O429" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P429" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,7 +34764,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N430" t="n">
         <v>9000</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N431" t="n">
         <v>7000</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N432" t="n">
         <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P432" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35007,13 +35007,13 @@
         <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P433" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N434" t="n">
         <v>9000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N436" t="n">
         <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P436" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N437" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O437" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P437" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P440" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E441" t="n">
         <v>8</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
         <v>100</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
         <v>9000</v>
       </c>
       <c r="O442" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
         <v>100</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N444" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
         <v>100</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P445" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N447" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E448" t="n">
         <v>8</v>
@@ -36207,13 +36207,13 @@
         <v>100</v>
       </c>
       <c r="N448" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O448" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P448" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E449" t="n">
         <v>8</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -36367,13 +36367,13 @@
         <v>100</v>
       </c>
       <c r="N450" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P450" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36447,13 +36447,13 @@
         <v>100</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36527,13 +36527,13 @@
         <v>100</v>
       </c>
       <c r="N452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N453" t="n">
         <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P453" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -36767,13 +36767,13 @@
         <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>656</v>
+        <v>531</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E456" t="n">
         <v>8</v>
@@ -36847,13 +36847,13 @@
         <v>100</v>
       </c>
       <c r="N456" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O456" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P456" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E457" t="n">
         <v>8</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37007,13 +37007,13 @@
         <v>100</v>
       </c>
       <c r="N458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44356</v>
+        <v>44397</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N459" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44356</v>
+        <v>44397</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
         <v>100</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -37320,7 +37320,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M462" t="n">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E463" t="n">
         <v>8</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P463" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E464" t="n">
         <v>8</v>
@@ -37475,12 +37475,12 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N465" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P468" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37887,13 +37887,13 @@
         <v>100</v>
       </c>
       <c r="N469" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O469" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P469" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N470" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O470" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P470" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38047,13 +38047,13 @@
         <v>100</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N472" t="n">
         <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P472" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38207,13 +38207,13 @@
         <v>100</v>
       </c>
       <c r="N473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E474" t="n">
         <v>8</v>
@@ -38287,13 +38287,13 @@
         <v>200</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P474" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38367,13 +38367,13 @@
         <v>100</v>
       </c>
       <c r="N475" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P475" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N476" t="n">
         <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P476" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38527,13 +38527,13 @@
         <v>100</v>
       </c>
       <c r="N477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P477" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
         <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E480" t="n">
         <v>8</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N480" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
         <v>100</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O481" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P481" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
         <v>100</v>
       </c>
       <c r="N482" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N483" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P483" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E484" t="n">
         <v>8</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39087,13 +39087,13 @@
         <v>100</v>
       </c>
       <c r="N484" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O484" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E485" t="n">
         <v>8</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39167,13 +39167,13 @@
         <v>100</v>
       </c>
       <c r="N485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
         <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
         <v>100</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O488" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P488" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O489" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P489" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N490" t="n">
         <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P490" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39647,13 +39647,13 @@
         <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N492" t="n">
         <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P492" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39807,13 +39807,13 @@
         <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N494" t="n">
         <v>9000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P494" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39967,13 +39967,13 @@
         <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
         <v>9000</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N497" t="n">
         <v>8000</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E498" t="n">
         <v>8</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O498" t="n">
         <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E499" t="n">
         <v>8</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
         <v>100</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O499" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N500" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
         <v>100</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
         <v>100</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N503" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O503" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P503" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N504" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P507" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41007,13 +41007,13 @@
         <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O509" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P509" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41167,13 +41167,13 @@
         <v>100</v>
       </c>
       <c r="N510" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O510" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P510" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O511" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41327,13 +41327,13 @@
         <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O512" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P512" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
         <v>11000</v>
       </c>
       <c r="P513" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41480,7 +41480,7 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N515" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P515" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41640,7 +41640,7 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M516" t="n">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N517" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O517" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P517" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41800,7 +41800,7 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42207,13 +42207,13 @@
         <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O523" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P523" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N524" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O524" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P524" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42367,13 +42367,13 @@
         <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O525" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P525" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P526" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42527,13 +42527,13 @@
         <v>100</v>
       </c>
       <c r="N527" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O527" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O528" t="n">
         <v>11000</v>
       </c>
       <c r="P528" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42680,7 +42680,7 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42840,7 +42840,7 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N532" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P532" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,16 +42995,16 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N533" t="n">
         <v>9000</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M534" t="n">
         <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O534" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P534" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,7 +43164,7 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N535" t="n">
         <v>9000</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,7 +43244,7 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N536" t="n">
         <v>7000</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N537" t="n">
         <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P537" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43407,13 +43407,13 @@
         <v>100</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N539" t="n">
         <v>9000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P539" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N540" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P540" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N541" t="n">
         <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P541" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N543" t="n">
         <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,7 +43884,7 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
         <v>8000</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N545" t="n">
         <v>9000</v>
       </c>
       <c r="O545" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P545" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,7 +44044,7 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
         <v>8000</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
         <v>9000</v>
       </c>
       <c r="O547" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,7 +44204,7 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N548" t="n">
         <v>8000</v>
@@ -44229,6 +44229,486 @@
         <v>500</v>
       </c>
       <c r="T548" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>11</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E549" t="n">
+        <v>8</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M549" t="n">
+        <v>50</v>
+      </c>
+      <c r="N549" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O549" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P549" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S549" t="n">
+        <v>562</v>
+      </c>
+      <c r="T549" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>11</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E550" t="n">
+        <v>8</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M550" t="n">
+        <v>50</v>
+      </c>
+      <c r="N550" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O550" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P550" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S550" t="n">
+        <v>500</v>
+      </c>
+      <c r="T550" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>11</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E551" t="n">
+        <v>8</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M551" t="n">
+        <v>50</v>
+      </c>
+      <c r="N551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P551" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S551" t="n">
+        <v>562</v>
+      </c>
+      <c r="T551" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>11</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E552" t="n">
+        <v>8</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M552" t="n">
+        <v>50</v>
+      </c>
+      <c r="N552" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O552" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P552" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S552" t="n">
+        <v>500</v>
+      </c>
+      <c r="T552" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>11</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E553" t="n">
+        <v>8</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M553" t="n">
+        <v>50</v>
+      </c>
+      <c r="N553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S553" t="n">
+        <v>562</v>
+      </c>
+      <c r="T553" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>11</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E554" t="n">
+        <v>8</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M554" t="n">
+        <v>50</v>
+      </c>
+      <c r="N554" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O554" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P554" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S554" t="n">
+        <v>500</v>
+      </c>
+      <c r="T554" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T554"/>
+  <dimension ref="A1:T560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
         <v>50</v>
       </c>
       <c r="N504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P505" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
         <v>100</v>
       </c>
       <c r="N506" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="O506" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P506" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N507" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
         <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N510" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41487,13 +41487,13 @@
         <v>100</v>
       </c>
       <c r="N514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P515" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41647,13 +41647,13 @@
         <v>100</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41807,13 +41807,13 @@
         <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N519" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
         <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41960,7 +41960,7 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M520" t="n">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P521" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42120,7 +42120,7 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N523" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O523" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P523" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42280,7 +42280,7 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N525" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O525" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P525" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N528" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P528" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42687,13 +42687,13 @@
         <v>100</v>
       </c>
       <c r="N529" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P530" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42847,13 +42847,13 @@
         <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P531" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P532" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -43007,13 +43007,13 @@
         <v>100</v>
       </c>
       <c r="N533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
         <v>11000</v>
       </c>
       <c r="P534" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43160,7 +43160,7 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E536" t="n">
         <v>8</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N536" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O536" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P536" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43320,7 +43320,7 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P538" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,16 +43475,16 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N539" t="n">
         <v>9000</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M540" t="n">
         <v>50</v>
       </c>
       <c r="N540" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,7 +43644,7 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N541" t="n">
         <v>9000</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
         <v>7000</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N543" t="n">
         <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P543" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43887,13 +43887,13 @@
         <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N545" t="n">
         <v>9000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P545" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E547" t="n">
         <v>8</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N547" t="n">
         <v>9000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P547" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N548" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P548" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N549" t="n">
         <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,7 +44364,7 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N550" t="n">
         <v>8000</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N551" t="n">
         <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E552" t="n">
         <v>8</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,7 +44524,7 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N552" t="n">
         <v>8000</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
         <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,7 +44684,7 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N554" t="n">
         <v>8000</v>
@@ -44709,6 +44709,486 @@
         <v>500</v>
       </c>
       <c r="T554" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>11</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E555" t="n">
+        <v>8</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M555" t="n">
+        <v>50</v>
+      </c>
+      <c r="N555" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O555" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P555" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S555" t="n">
+        <v>562</v>
+      </c>
+      <c r="T555" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>11</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E556" t="n">
+        <v>8</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M556" t="n">
+        <v>50</v>
+      </c>
+      <c r="N556" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O556" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P556" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S556" t="n">
+        <v>500</v>
+      </c>
+      <c r="T556" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>11</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D557" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E557" t="n">
+        <v>8</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M557" t="n">
+        <v>50</v>
+      </c>
+      <c r="N557" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O557" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P557" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S557" t="n">
+        <v>562</v>
+      </c>
+      <c r="T557" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>11</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E558" t="n">
+        <v>8</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M558" t="n">
+        <v>50</v>
+      </c>
+      <c r="N558" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O558" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P558" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S558" t="n">
+        <v>500</v>
+      </c>
+      <c r="T558" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>11</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E559" t="n">
+        <v>8</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M559" t="n">
+        <v>50</v>
+      </c>
+      <c r="N559" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O559" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P559" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S559" t="n">
+        <v>562</v>
+      </c>
+      <c r="T559" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>11</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D560" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E560" t="n">
+        <v>8</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G560" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M560" t="n">
+        <v>50</v>
+      </c>
+      <c r="N560" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O560" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P560" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S560" t="n">
+        <v>500</v>
+      </c>
+      <c r="T560" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T564"/>
+  <dimension ref="A1:T569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -33807,13 +33807,13 @@
         <v>200</v>
       </c>
       <c r="N418" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -33887,13 +33887,13 @@
         <v>100</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>11500</v>
+        <v>9333</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>719</v>
+        <v>583</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34130,10 +34130,10 @@
         <v>9000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P422" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N423" t="n">
         <v>8000</v>
@@ -34222,7 +34222,7 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S423" t="n">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N424" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N425" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E426" t="n">
         <v>8</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E427" t="n">
         <v>8</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N427" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O428" t="n">
         <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N430" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
         <v>100</v>
       </c>
       <c r="N432" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
         <v>50</v>
       </c>
       <c r="N433" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O433" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P433" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N436" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O436" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P436" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
         <v>100</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N438" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P438" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
         <v>50</v>
       </c>
       <c r="N439" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O439" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P439" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N440" t="n">
         <v>9000</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N441" t="n">
         <v>7000</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N442" t="n">
         <v>9000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P442" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35807,13 +35807,13 @@
         <v>100</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N444" t="n">
         <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P444" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E446" t="n">
         <v>8</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N446" t="n">
         <v>9000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P446" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O447" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P447" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
         <v>100</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N452" t="n">
         <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
         <v>100</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N454" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O454" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P454" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
         <v>100</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36835,25 +36835,25 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E457" t="n">
         <v>8</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N457" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -37007,13 +37007,13 @@
         <v>100</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O459" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P459" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37167,13 +37167,13 @@
         <v>100</v>
       </c>
       <c r="N460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37247,13 +37247,13 @@
         <v>100</v>
       </c>
       <c r="N461" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P461" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37327,13 +37327,13 @@
         <v>100</v>
       </c>
       <c r="N462" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O462" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P462" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N463" t="n">
         <v>8000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P463" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E465" t="n">
         <v>8</v>
@@ -37567,13 +37567,13 @@
         <v>200</v>
       </c>
       <c r="N465" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P465" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>656</v>
+        <v>531</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E466" t="n">
         <v>8</v>
@@ -37647,13 +37647,13 @@
         <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O467" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37807,13 +37807,13 @@
         <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O468" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P468" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44356</v>
+        <v>44397</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N469" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O469" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P469" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44356</v>
+        <v>44397</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
         <v>100</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O471" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P471" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38120,7 +38120,7 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P473" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E474" t="n">
         <v>8</v>
@@ -38275,12 +38275,12 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P478" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -38687,13 +38687,13 @@
         <v>100</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P479" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E480" t="n">
         <v>8</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38847,13 +38847,13 @@
         <v>100</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N482" t="n">
         <v>9000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P482" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39007,13 +39007,13 @@
         <v>100</v>
       </c>
       <c r="N483" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E484" t="n">
         <v>8</v>
@@ -39087,13 +39087,13 @@
         <v>200</v>
       </c>
       <c r="N484" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P484" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E485" t="n">
         <v>8</v>
@@ -39167,13 +39167,13 @@
         <v>100</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P485" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E486" t="n">
         <v>8</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N486" t="n">
         <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39327,13 +39327,13 @@
         <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O487" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O488" t="n">
         <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N490" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
         <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O491" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P491" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
         <v>100</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O493" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39887,13 +39887,13 @@
         <v>100</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39967,13 +39967,13 @@
         <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O496" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P496" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
         <v>100</v>
       </c>
       <c r="N497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P499" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N500" t="n">
         <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40447,13 +40447,13 @@
         <v>100</v>
       </c>
       <c r="N501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N502" t="n">
         <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40607,13 +40607,13 @@
         <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
         <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40767,13 +40767,13 @@
         <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P505" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,7 +40844,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N506" t="n">
         <v>9000</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,7 +40924,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N507" t="n">
         <v>8000</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N508" t="n">
         <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N509" t="n">
         <v>8000</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N510" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>312</v>
+        <v>594</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N511" t="n">
         <v>8000</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
         <v>50</v>
       </c>
       <c r="N514" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P514" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P515" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N516" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O516" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P516" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41730,10 +41730,10 @@
         <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N518" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O518" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P518" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N519" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
         <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
         <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P521" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
         <v>100</v>
       </c>
       <c r="N522" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O523" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P523" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,12 +42275,12 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O525" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P525" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,12 +42435,12 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N527" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O527" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O528" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P528" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N530" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O530" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P530" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42847,13 +42847,13 @@
         <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P531" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43007,13 +43007,13 @@
         <v>100</v>
       </c>
       <c r="N533" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O533" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P533" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O534" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P534" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
         <v>100</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
         <v>100</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O536" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P536" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
         <v>100</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N538" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O538" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P538" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,12 +43475,12 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P540" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43635,12 +43635,12 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O542" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P542" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>656</v>
+        <v>438</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N543" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O543" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P543" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O545" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P545" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44047,13 +44047,13 @@
         <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P546" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E547" t="n">
         <v>8</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O547" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P547" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44207,13 +44207,13 @@
         <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
         <v>50</v>
       </c>
       <c r="N549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P550" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E553" t="n">
         <v>8</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P553" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E554" t="n">
         <v>8</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N554" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O554" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P554" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E555" t="n">
         <v>8</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N555" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O555" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P555" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N556" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P556" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P557" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N558" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E560" t="n">
         <v>8</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N560" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P560" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E561" t="n">
         <v>8</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N561" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O561" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P561" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N562" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O562" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N563" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45475,40 +45475,440 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
         <v>50</v>
       </c>
       <c r="N564" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O564" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P564" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S564" t="n">
+        <v>562</v>
+      </c>
+      <c r="T564" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>11</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E565" t="n">
+        <v>8</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G565" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M565" t="n">
+        <v>50</v>
+      </c>
+      <c r="N565" t="n">
         <v>8000</v>
       </c>
-      <c r="O564" t="n">
+      <c r="O565" t="n">
         <v>8000</v>
       </c>
-      <c r="P564" t="n">
+      <c r="P565" t="n">
         <v>8000</v>
       </c>
-      <c r="Q564" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R564" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S564" t="n">
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S565" t="n">
         <v>500</v>
       </c>
-      <c r="T564" t="n">
+      <c r="T565" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>11</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D566" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E566" t="n">
+        <v>8</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G566" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M566" t="n">
+        <v>50</v>
+      </c>
+      <c r="N566" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O566" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P566" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S566" t="n">
+        <v>562</v>
+      </c>
+      <c r="T566" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>11</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E567" t="n">
+        <v>8</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G567" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M567" t="n">
+        <v>50</v>
+      </c>
+      <c r="N567" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O567" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P567" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S567" t="n">
+        <v>500</v>
+      </c>
+      <c r="T567" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>11</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E568" t="n">
+        <v>8</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G568" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M568" t="n">
+        <v>50</v>
+      </c>
+      <c r="N568" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O568" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P568" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S568" t="n">
+        <v>562</v>
+      </c>
+      <c r="T568" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>11</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E569" t="n">
+        <v>8</v>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G569" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M569" t="n">
+        <v>50</v>
+      </c>
+      <c r="N569" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O569" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P569" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q569" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S569" t="n">
+        <v>500</v>
+      </c>
+      <c r="T569" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T573"/>
+  <dimension ref="A1:T577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E400" t="n">
         <v>8</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N400" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O400" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O401" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E402" t="n">
         <v>8</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N402" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T402" t="n">
         <v>16</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N403" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O403" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P403" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
         <v>9000</v>
       </c>
       <c r="P406" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E408" t="n">
         <v>8</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,7 +33004,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
         <v>8000</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E409" t="n">
         <v>8</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N409" t="n">
         <v>7000</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E410" t="n">
         <v>8</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33167,13 +33167,13 @@
         <v>100</v>
       </c>
       <c r="N410" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O410" t="n">
         <v>9000</v>
       </c>
       <c r="P410" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N411" t="n">
         <v>7000</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N416" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O416" t="n">
         <v>9000</v>
       </c>
-      <c r="O416" t="n">
-        <v>10000</v>
-      </c>
       <c r="P416" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E418" t="n">
         <v>8</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N418" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O418" t="n">
         <v>9000</v>
       </c>
-      <c r="O418" t="n">
-        <v>10000</v>
-      </c>
       <c r="P418" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N424" t="n">
         <v>9000</v>
@@ -34293,7 +34293,7 @@
         <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>9333</v>
+        <v>9500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E425" t="n">
         <v>8</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N425" t="n">
         <v>8000</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N426" t="n">
         <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N428" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O428" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>11500</v>
+        <v>9333</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>719</v>
+        <v>583</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N430" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P430" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>719</v>
+        <v>562</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44166</v>
+        <v>44463</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34847,13 +34847,13 @@
         <v>100</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44433</v>
+        <v>44166</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N438" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O438" t="n">
         <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N440" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P440" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35582,11 +35582,11 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E441" t="n">
         <v>8</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N441" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
         <v>50</v>
       </c>
       <c r="N443" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N444" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O444" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P444" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
         <v>100</v>
       </c>
       <c r="N445" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O445" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P445" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
         <v>100</v>
       </c>
       <c r="N446" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P446" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P447" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,7 +36204,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N448" t="n">
         <v>9000</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,7 +36284,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N449" t="n">
         <v>7000</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,7 +36364,7 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N450" t="n">
         <v>9000</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,7 +36444,7 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N451" t="n">
         <v>7000</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N452" t="n">
         <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P452" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N454" t="n">
         <v>9000</v>
       </c>
       <c r="O454" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P454" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N460" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>100</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E462" t="n">
         <v>8</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N462" t="n">
         <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E463" t="n">
         <v>8</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
         <v>100</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N464" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O464" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P464" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37647,13 +37647,13 @@
         <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P466" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N467" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P467" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37807,13 +37807,13 @@
         <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O468" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P468" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O469" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P469" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37967,13 +37967,13 @@
         <v>100</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N471" t="n">
         <v>8000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N473" t="n">
         <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O475" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38447,13 +38447,13 @@
         <v>100</v>
       </c>
       <c r="N476" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O476" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P476" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38607,13 +38607,13 @@
         <v>100</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N479" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
         <v>11000</v>
       </c>
       <c r="P479" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E480" t="n">
         <v>8</v>
@@ -38755,12 +38755,12 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P481" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,12 +38915,12 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P483" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O488" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P488" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39487,13 +39487,13 @@
         <v>100</v>
       </c>
       <c r="N489" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P490" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39647,13 +39647,13 @@
         <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39727,13 +39727,13 @@
         <v>200</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P492" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39807,13 +39807,13 @@
         <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P493" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39887,13 +39887,13 @@
         <v>200</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P494" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39967,13 +39967,13 @@
         <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
         <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O498" t="n">
         <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N500" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O500" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P500" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
         <v>100</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
         <v>100</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P503" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O504" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P504" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
         <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
         <v>100</v>
       </c>
       <c r="N506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N510" t="n">
         <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41247,13 +41247,13 @@
         <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O511" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P511" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N512" t="n">
         <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41407,13 +41407,13 @@
         <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,7 +41644,7 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N516" t="n">
         <v>9000</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,7 +41724,7 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N517" t="n">
         <v>8000</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N518" t="n">
         <v>9000</v>
       </c>
       <c r="O518" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N519" t="n">
         <v>8000</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N521" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P521" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
         <v>50</v>
       </c>
       <c r="N522" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
         <v>50</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N524" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O524" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P524" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
         <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O525" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N527" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O527" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P532" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43007,13 +43007,13 @@
         <v>100</v>
       </c>
       <c r="N533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P533" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N534" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O534" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P534" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43167,13 +43167,13 @@
         <v>100</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
         <v>11000</v>
       </c>
       <c r="P538" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,12 +43475,12 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N540" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O540" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43635,12 +43635,12 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N542" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P542" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E547" t="n">
         <v>8</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P547" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44207,13 +44207,13 @@
         <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O548" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P548" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N549" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P549" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44367,13 +44367,13 @@
         <v>100</v>
       </c>
       <c r="N550" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O550" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P550" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E553" t="n">
         <v>8</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O553" t="n">
         <v>11000</v>
       </c>
       <c r="P553" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E554" t="n">
         <v>8</v>
@@ -44675,12 +44675,12 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E555" t="n">
         <v>8</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N555" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O555" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P555" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44835,12 +44835,12 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N557" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O557" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P557" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45004,7 +45004,7 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N558" t="n">
         <v>9000</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,7 +45084,7 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N559" t="n">
         <v>7000</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,7 +45164,7 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N560" t="n">
         <v>9000</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,7 +45244,7 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N561" t="n">
         <v>7000</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N562" t="n">
         <v>9000</v>
       </c>
       <c r="O562" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P562" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E563" t="n">
         <v>8</v>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N563" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O563" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P563" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E564" t="n">
         <v>8</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N564" t="n">
         <v>9000</v>
       </c>
       <c r="O564" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P564" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N565" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P565" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N568" t="n">
         <v>9000</v>
       </c>
       <c r="O568" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P568" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E569" t="n">
         <v>8</v>
@@ -45884,7 +45884,7 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N569" t="n">
         <v>8000</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N570" t="n">
         <v>9000</v>
       </c>
       <c r="O570" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,7 +46044,7 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N571" t="n">
         <v>8000</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46229,6 +46229,326 @@
         <v>500</v>
       </c>
       <c r="T573" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>11</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E574" t="n">
+        <v>8</v>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G574" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I574" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M574" t="n">
+        <v>50</v>
+      </c>
+      <c r="N574" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O574" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P574" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q574" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R574" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S574" t="n">
+        <v>562</v>
+      </c>
+      <c r="T574" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>11</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E575" t="n">
+        <v>8</v>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G575" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I575" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M575" t="n">
+        <v>50</v>
+      </c>
+      <c r="N575" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O575" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P575" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q575" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R575" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S575" t="n">
+        <v>500</v>
+      </c>
+      <c r="T575" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>11</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E576" t="n">
+        <v>8</v>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G576" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I576" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M576" t="n">
+        <v>50</v>
+      </c>
+      <c r="N576" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O576" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P576" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q576" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R576" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S576" t="n">
+        <v>562</v>
+      </c>
+      <c r="T576" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>11</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E577" t="n">
+        <v>8</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G577" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M577" t="n">
+        <v>50</v>
+      </c>
+      <c r="N577" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O577" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P577" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q577" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S577" t="n">
+        <v>500</v>
+      </c>
+      <c r="T577" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T583"/>
+  <dimension ref="A1:T589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N489" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
         <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
         <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44356</v>
+        <v>44474</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N495" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E498" t="n">
         <v>8</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O498" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P498" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E499" t="n">
         <v>8</v>
@@ -40287,13 +40287,13 @@
         <v>100</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40447,13 +40447,13 @@
         <v>100</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N502" t="n">
         <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40607,13 +40607,13 @@
         <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P503" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40687,13 +40687,13 @@
         <v>200</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P504" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40767,13 +40767,13 @@
         <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N506" t="n">
         <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40927,13 +40927,13 @@
         <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P507" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
         <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N510" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
         <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
         <v>100</v>
       </c>
       <c r="N512" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41487,13 +41487,13 @@
         <v>100</v>
       </c>
       <c r="N514" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O514" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P514" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41567,13 +41567,13 @@
         <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
         <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O517" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
         <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
         <v>9000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42047,13 +42047,13 @@
         <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N522" t="n">
         <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42207,13 +42207,13 @@
         <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N524" t="n">
         <v>9000</v>
       </c>
       <c r="O524" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P524" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42367,13 +42367,13 @@
         <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O525" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P525" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,7 +42444,7 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N526" t="n">
         <v>9000</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,7 +42524,7 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N527" t="n">
         <v>8000</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
         <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N529" t="n">
         <v>8000</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N530" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P530" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P531" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
         <v>50</v>
       </c>
       <c r="N533" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,7 +43084,7 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
         <v>9000</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E536" t="n">
         <v>8</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
         <v>100</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N539" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O542" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P542" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43807,13 +43807,13 @@
         <v>100</v>
       </c>
       <c r="N543" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O543" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P543" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43967,13 +43967,13 @@
         <v>100</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P545" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P546" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E547" t="n">
         <v>8</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44127,13 +44127,13 @@
         <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O547" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P547" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N548" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O548" t="n">
         <v>11000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44280,7 +44280,7 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44440,7 +44440,7 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E552" t="n">
         <v>8</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O552" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P552" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44376</v>
+        <v>44162</v>
       </c>
       <c r="E553" t="n">
         <v>8</v>
@@ -44600,7 +44600,7 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N554" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O554" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P554" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N557" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P557" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45007,13 +45007,13 @@
         <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O558" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P558" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E560" t="n">
         <v>8</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45167,13 +45167,13 @@
         <v>100</v>
       </c>
       <c r="N560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P560" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E561" t="n">
         <v>8</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N561" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P561" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
@@ -45327,13 +45327,13 @@
         <v>100</v>
       </c>
       <c r="N562" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O562" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P562" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E563" t="n">
         <v>8</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N563" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O563" t="n">
         <v>11000</v>
       </c>
       <c r="P563" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E564" t="n">
         <v>8</v>
@@ -45480,7 +45480,7 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N565" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P565" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45640,7 +45640,7 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N567" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P567" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45795,16 +45795,16 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N568" t="n">
         <v>9000</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
         <v>50</v>
       </c>
       <c r="N569" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O569" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P569" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45964,7 +45964,7 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N570" t="n">
         <v>9000</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,7 +46044,7 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N571" t="n">
         <v>7000</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N572" t="n">
         <v>9000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P572" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46207,13 +46207,13 @@
         <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O573" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P573" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N574" t="n">
         <v>9000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P574" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N576" t="n">
         <v>9000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P576" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E577" t="n">
         <v>8</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E578" t="n">
         <v>8</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N578" t="n">
         <v>9000</v>
       </c>
       <c r="O578" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P578" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,7 +46684,7 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N579" t="n">
         <v>8000</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N580" t="n">
         <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,7 +46844,7 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N581" t="n">
         <v>8000</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N582" t="n">
         <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,7 +47004,7 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N583" t="n">
         <v>8000</v>
@@ -47029,6 +47029,486 @@
         <v>500</v>
       </c>
       <c r="T583" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>11</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E584" t="n">
+        <v>8</v>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G584" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M584" t="n">
+        <v>50</v>
+      </c>
+      <c r="N584" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O584" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P584" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q584" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S584" t="n">
+        <v>562</v>
+      </c>
+      <c r="T584" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>11</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E585" t="n">
+        <v>8</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G585" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M585" t="n">
+        <v>50</v>
+      </c>
+      <c r="N585" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O585" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P585" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q585" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S585" t="n">
+        <v>500</v>
+      </c>
+      <c r="T585" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>11</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E586" t="n">
+        <v>8</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M586" t="n">
+        <v>50</v>
+      </c>
+      <c r="N586" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O586" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P586" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S586" t="n">
+        <v>562</v>
+      </c>
+      <c r="T586" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>11</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E587" t="n">
+        <v>8</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G587" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M587" t="n">
+        <v>50</v>
+      </c>
+      <c r="N587" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O587" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P587" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q587" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S587" t="n">
+        <v>500</v>
+      </c>
+      <c r="T587" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>11</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E588" t="n">
+        <v>8</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G588" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M588" t="n">
+        <v>50</v>
+      </c>
+      <c r="N588" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O588" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P588" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q588" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S588" t="n">
+        <v>562</v>
+      </c>
+      <c r="T588" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>11</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E589" t="n">
+        <v>8</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M589" t="n">
+        <v>50</v>
+      </c>
+      <c r="N589" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O589" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P589" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S589" t="n">
+        <v>500</v>
+      </c>
+      <c r="T589" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T593"/>
+  <dimension ref="A1:T597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N506" t="n">
         <v>9000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P506" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41167,13 +41167,13 @@
         <v>100</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O510" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41247,13 +41247,13 @@
         <v>50</v>
       </c>
       <c r="N511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N512" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41407,13 +41407,13 @@
         <v>50</v>
       </c>
       <c r="N513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O520" t="n">
         <v>9000</v>
       </c>
       <c r="P520" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N522" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O522" t="n">
         <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
         <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P526" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N527" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O527" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N528" t="n">
         <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P528" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N532" t="n">
         <v>9000</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,7 +43004,7 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N533" t="n">
         <v>8000</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N534" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O534" t="n">
         <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
         <v>100</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E536" t="n">
         <v>8</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
         <v>100</v>
       </c>
       <c r="N536" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P536" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N538" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43810,10 +43810,10 @@
         <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P543" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43970,10 +43970,10 @@
         <v>9000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P545" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P546" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P550" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N551" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E552" t="n">
         <v>8</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O552" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
         <v>8000</v>
       </c>
       <c r="O553" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P553" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N555" t="n">
         <v>8000</v>
       </c>
       <c r="O555" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P555" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
         <v>100</v>
       </c>
       <c r="N557" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O557" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
         <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O558" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P558" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
         <v>100</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E560" t="n">
         <v>8</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
         <v>100</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O560" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P560" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
         <v>100</v>
       </c>
       <c r="N561" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O561" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P561" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
         <v>100</v>
       </c>
       <c r="N562" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
         <v>100</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P563" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
         <v>100</v>
       </c>
       <c r="N564" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P564" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N565" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45647,13 +45647,13 @@
         <v>100</v>
       </c>
       <c r="N566" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O566" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P566" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45727,13 +45727,13 @@
         <v>100</v>
       </c>
       <c r="N567" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45807,13 +45807,13 @@
         <v>100</v>
       </c>
       <c r="N568" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O569" t="n">
         <v>9000</v>
       </c>
       <c r="P569" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N573" t="n">
         <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P573" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46287,13 +46287,13 @@
         <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O574" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P574" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N575" t="n">
         <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P575" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46447,13 +46447,13 @@
         <v>100</v>
       </c>
       <c r="N576" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O576" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P576" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E577" t="n">
         <v>8</v>
@@ -46527,13 +46527,13 @@
         <v>200</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O577" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E578" t="n">
         <v>8</v>
@@ -46607,13 +46607,13 @@
         <v>100</v>
       </c>
       <c r="N578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46687,13 +46687,13 @@
         <v>200</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46767,13 +46767,13 @@
         <v>100</v>
       </c>
       <c r="N580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N583" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
         <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E585" t="n">
         <v>8</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
         <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E586" t="n">
         <v>8</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
         <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P588" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
         <v>50</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E591" t="n">
         <v>8</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,7 +47644,7 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N591" t="n">
         <v>8000</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E592" t="n">
         <v>8</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,7 +47724,7 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N592" t="n">
         <v>9000</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N593" t="n">
         <v>8000</v>
@@ -47829,6 +47829,326 @@
         <v>500</v>
       </c>
       <c r="T593" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>11</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E594" t="n">
+        <v>8</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M594" t="n">
+        <v>200</v>
+      </c>
+      <c r="N594" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O594" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P594" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
+        <v>594</v>
+      </c>
+      <c r="T594" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>11</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E595" t="n">
+        <v>8</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M595" t="n">
+        <v>100</v>
+      </c>
+      <c r="N595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P595" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S595" t="n">
+        <v>500</v>
+      </c>
+      <c r="T595" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>11</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E596" t="n">
+        <v>8</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M596" t="n">
+        <v>200</v>
+      </c>
+      <c r="N596" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O596" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P596" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S596" t="n">
+        <v>594</v>
+      </c>
+      <c r="T596" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>11</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E597" t="n">
+        <v>8</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M597" t="n">
+        <v>100</v>
+      </c>
+      <c r="N597" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O597" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P597" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S597" t="n">
+        <v>500</v>
+      </c>
+      <c r="T597" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T615"/>
+  <dimension ref="A1:T619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N309" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O309" t="n">
         <v>10000</v>
       </c>
       <c r="P309" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T309" t="n">
         <v>16</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E310" t="n">
         <v>8</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25167,13 +25167,13 @@
         <v>50</v>
       </c>
       <c r="N310" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O310" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P310" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T310" t="n">
         <v>16</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E311" t="n">
         <v>8</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N311" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O311" t="n">
         <v>10000</v>
       </c>
       <c r="P311" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T311" t="n">
         <v>16</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25327,13 +25327,13 @@
         <v>50</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T312" t="n">
         <v>16</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E313" t="n">
         <v>8</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N313" t="n">
         <v>9000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N314" t="n">
         <v>8000</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E315" t="n">
         <v>8</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N315" t="n">
         <v>9000</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E316" t="n">
         <v>8</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N316" t="n">
         <v>8000</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44232</v>
+        <v>44421</v>
       </c>
       <c r="E317" t="n">
         <v>8</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T317" t="n">
         <v>16</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N318" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P318" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T318" t="n">
         <v>16</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E319" t="n">
         <v>8</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T319" t="n">
         <v>16</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E320" t="n">
         <v>8</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N320" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
         <v>16</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26047,13 +26047,13 @@
         <v>100</v>
       </c>
       <c r="N321" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O321" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T321" t="n">
         <v>16</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E326" t="n">
         <v>8</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O326" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T326" t="n">
         <v>16</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E327" t="n">
         <v>8</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>100</v>
       </c>
       <c r="N327" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O327" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P327" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T327" t="n">
         <v>16</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N328" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O328" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P328" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T328" t="n">
         <v>16</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E329" t="n">
         <v>8</v>
@@ -26675,25 +26675,25 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
         <v>100</v>
       </c>
       <c r="N329" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O329" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P329" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T329" t="n">
         <v>16</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N330" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O330" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P330" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T330" t="n">
         <v>16</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E335" t="n">
         <v>8</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N335" t="n">
         <v>9000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P335" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T335" t="n">
         <v>16</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E336" t="n">
         <v>8</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27247,13 +27247,13 @@
         <v>100</v>
       </c>
       <c r="N336" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O336" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P336" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T336" t="n">
         <v>16</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E337" t="n">
         <v>8</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N337" t="n">
         <v>9000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P337" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T337" t="n">
         <v>16</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44467</v>
+        <v>44356</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27407,13 +27407,13 @@
         <v>100</v>
       </c>
       <c r="N338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T338" t="n">
         <v>16</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E339" t="n">
         <v>8</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E340" t="n">
         <v>8</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E341" t="n">
         <v>8</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E342" t="n">
         <v>8</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E343" t="n">
         <v>8</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27807,13 +27807,13 @@
         <v>200</v>
       </c>
       <c r="N343" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O343" t="n">
         <v>10000</v>
       </c>
-      <c r="O343" t="n">
-        <v>11000</v>
-      </c>
       <c r="P343" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T343" t="n">
         <v>16</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E344" t="n">
         <v>8</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27887,13 +27887,13 @@
         <v>100</v>
       </c>
       <c r="N344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
         <v>16</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E345" t="n">
         <v>8</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27967,13 +27967,13 @@
         <v>200</v>
       </c>
       <c r="N345" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O345" t="n">
         <v>10000</v>
       </c>
-      <c r="O345" t="n">
-        <v>11000</v>
-      </c>
       <c r="P345" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T345" t="n">
         <v>16</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E346" t="n">
         <v>8</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28047,13 +28047,13 @@
         <v>100</v>
       </c>
       <c r="N346" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O346" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P346" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
         <v>16</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E347" t="n">
         <v>8</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N347" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P347" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T347" t="n">
         <v>16</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E348" t="n">
         <v>8</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N348" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P348" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T348" t="n">
         <v>16</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E349" t="n">
         <v>8</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E350" t="n">
         <v>8</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N350" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O350" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P350" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E351" t="n">
         <v>8</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E352" t="n">
         <v>8</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E353" t="n">
         <v>8</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E354" t="n">
         <v>8</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N355" t="n">
         <v>9000</v>
       </c>
       <c r="O355" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T355" t="n">
         <v>16</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E357" t="n">
         <v>8</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E358" t="n">
         <v>8</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E359" t="n">
         <v>8</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N359" t="n">
         <v>9000</v>
       </c>
       <c r="O359" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P359" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T359" t="n">
         <v>16</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E363" t="n">
         <v>8</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N363" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O363" t="n">
         <v>10000</v>
       </c>
-      <c r="O363" t="n">
-        <v>11000</v>
-      </c>
       <c r="P363" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T363" t="n">
         <v>16</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E364" t="n">
         <v>8</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T364" t="n">
         <v>16</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N365" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O365" t="n">
         <v>10000</v>
       </c>
-      <c r="O365" t="n">
-        <v>11000</v>
-      </c>
       <c r="P365" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T365" t="n">
         <v>16</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N366" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O366" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P366" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T366" t="n">
         <v>16</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E369" t="n">
         <v>8</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E373" t="n">
         <v>8</v>
@@ -30207,13 +30207,13 @@
         <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P373" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E374" t="n">
         <v>8</v>
@@ -30287,13 +30287,13 @@
         <v>100</v>
       </c>
       <c r="N374" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O374" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P374" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E375" t="n">
         <v>8</v>
@@ -30367,13 +30367,13 @@
         <v>200</v>
       </c>
       <c r="N375" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P375" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T375" t="n">
         <v>16</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
@@ -30447,13 +30447,13 @@
         <v>100</v>
       </c>
       <c r="N376" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O376" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P376" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O377" t="n">
         <v>10000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O379" t="n">
         <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E381" t="n">
         <v>8</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
         <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E382" t="n">
         <v>8</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30927,13 +30927,13 @@
         <v>100</v>
       </c>
       <c r="N382" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P382" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T382" t="n">
         <v>16</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E383" t="n">
         <v>8</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N383" t="n">
         <v>10000</v>
       </c>
       <c r="O383" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P383" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T383" t="n">
         <v>16</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44274</v>
+        <v>44351</v>
       </c>
       <c r="E384" t="n">
         <v>8</v>
@@ -31087,13 +31087,13 @@
         <v>100</v>
       </c>
       <c r="N384" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P384" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T384" t="n">
         <v>16</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E385" t="n">
         <v>8</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E386" t="n">
         <v>8</v>
@@ -31235,25 +31235,25 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
         <v>100</v>
       </c>
       <c r="N386" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O386" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P386" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T386" t="n">
         <v>16</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P387" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T387" t="n">
         <v>16</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E388" t="n">
         <v>8</v>
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N388" t="n">
         <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
         <v>100</v>
       </c>
       <c r="N389" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T389" t="n">
         <v>16</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N390" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
         <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E394" t="n">
         <v>8</v>
@@ -31875,25 +31875,25 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O394" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E395" t="n">
         <v>8</v>
@@ -31955,25 +31955,25 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
         <v>100</v>
       </c>
       <c r="N395" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O395" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P395" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E396" t="n">
         <v>8</v>
@@ -32035,25 +32035,25 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N396" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T396" t="n">
         <v>16</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -32115,25 +32115,25 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
         <v>100</v>
       </c>
       <c r="N397" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O397" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T397" t="n">
         <v>16</v>
@@ -32195,25 +32195,25 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N398" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O398" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P398" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N399" t="n">
         <v>9000</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,7 +32364,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N400" t="n">
         <v>7000</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N401" t="n">
         <v>9000</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N402" t="n">
         <v>7000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O403" t="n">
         <v>9000</v>
       </c>
       <c r="P403" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N404" t="n">
         <v>7000</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O405" t="n">
         <v>9000</v>
       </c>
       <c r="P405" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E406" t="n">
         <v>8</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N406" t="n">
         <v>7000</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O407" t="n">
         <v>9000</v>
       </c>
       <c r="P407" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O409" t="n">
         <v>9000</v>
       </c>
       <c r="P409" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -33395,25 +33395,25 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E416" t="n">
         <v>8</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
         <v>50</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
         <v>50</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E419" t="n">
         <v>8</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E420" t="n">
         <v>8</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>594</v>
+        <v>750</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N422" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34607,13 +34607,13 @@
         <v>200</v>
       </c>
       <c r="N428" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O428" t="n">
         <v>10000</v>
       </c>
-      <c r="O428" t="n">
-        <v>11000</v>
-      </c>
       <c r="P428" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34687,13 +34687,13 @@
         <v>100</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P429" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -34767,13 +34767,13 @@
         <v>200</v>
       </c>
       <c r="N430" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -34847,13 +34847,13 @@
         <v>100</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E432" t="n">
         <v>8</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P432" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E433" t="n">
         <v>8</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O433" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P433" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E434" t="n">
         <v>8</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N435" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P435" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N442" t="n">
         <v>9000</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,7 +35804,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N443" t="n">
         <v>8000</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N444" t="n">
         <v>9000</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
         <v>8000</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E450" t="n">
         <v>8</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N450" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O450" t="n">
         <v>10000</v>
       </c>
-      <c r="O450" t="n">
-        <v>11000</v>
-      </c>
       <c r="P450" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N452" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O452" t="n">
         <v>10000</v>
       </c>
-      <c r="O452" t="n">
-        <v>11000</v>
-      </c>
       <c r="P452" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N453" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N458" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P458" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N459" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O459" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P459" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
         <v>100</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P460" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>50</v>
       </c>
       <c r="N461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N462" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
         <v>100</v>
       </c>
       <c r="N463" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
         <v>100</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P464" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N465" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O465" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P465" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E466" t="n">
         <v>8</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37647,13 +37647,13 @@
         <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
         <v>10000</v>
       </c>
       <c r="P466" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N467" t="n">
         <v>8000</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
         <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E470" t="n">
         <v>8</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,7 +37964,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N470" t="n">
         <v>9000</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E471" t="n">
         <v>8</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,7 +38044,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N471" t="n">
         <v>8000</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38124,7 +38124,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N472" t="n">
         <v>9000</v>
@@ -38142,7 +38142,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S472" t="n">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38200,33 +38200,33 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
+        <v>100</v>
+      </c>
+      <c r="N473" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O473" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P473" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S473" t="n">
         <v>500</v>
-      </c>
-      <c r="N473" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O473" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P473" t="n">
-        <v>9500</v>
-      </c>
-      <c r="Q473" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R473" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S473" t="n">
-        <v>594</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E474" t="n">
         <v>8</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N475" t="n">
         <v>8000</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N477" t="n">
         <v>9000</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N479" t="n">
         <v>8000</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,7 +38844,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N481" t="n">
         <v>9000</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,7 +39004,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N483" t="n">
         <v>8000</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O484" t="n">
         <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P485" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E486" t="n">
         <v>8</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P486" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39327,13 +39327,13 @@
         <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P487" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O489" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P489" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39730,10 +39730,10 @@
         <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P492" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E493" t="n">
         <v>8</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E494" t="n">
         <v>8</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39890,10 +39890,10 @@
         <v>9000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P494" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O498" t="n">
         <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,7 +40364,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N500" t="n">
         <v>9000</v>
@@ -40382,7 +40382,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S500" t="n">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,7 +40444,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N501" t="n">
         <v>8000</v>
@@ -40462,7 +40462,7 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S501" t="n">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
         <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,7 +40604,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N503" t="n">
         <v>8000</v>
@@ -40622,7 +40622,7 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S503" t="n">
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41007,13 +41007,13 @@
         <v>200</v>
       </c>
       <c r="N508" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O508" t="n">
         <v>10000</v>
       </c>
-      <c r="O508" t="n">
-        <v>11000</v>
-      </c>
       <c r="P508" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41087,13 +41087,13 @@
         <v>100</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41167,13 +41167,13 @@
         <v>200</v>
       </c>
       <c r="N510" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O510" t="n">
         <v>10000</v>
       </c>
-      <c r="O510" t="n">
-        <v>11000</v>
-      </c>
       <c r="P510" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41247,13 +41247,13 @@
         <v>100</v>
       </c>
       <c r="N511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41327,13 +41327,13 @@
         <v>200</v>
       </c>
       <c r="N512" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O512" t="n">
         <v>11000</v>
       </c>
-      <c r="O512" t="n">
-        <v>12000</v>
-      </c>
       <c r="P512" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41407,13 +41407,13 @@
         <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41487,13 +41487,13 @@
         <v>200</v>
       </c>
       <c r="N514" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O514" t="n">
         <v>11000</v>
       </c>
-      <c r="O514" t="n">
-        <v>12000</v>
-      </c>
       <c r="P514" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41567,13 +41567,13 @@
         <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P515" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41647,13 +41647,13 @@
         <v>200</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P516" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41727,13 +41727,13 @@
         <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P517" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41807,13 +41807,13 @@
         <v>200</v>
       </c>
       <c r="N518" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41887,13 +41887,13 @@
         <v>100</v>
       </c>
       <c r="N519" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N522" t="n">
         <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N524" t="n">
         <v>9000</v>
       </c>
       <c r="O524" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P524" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,7 +42364,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N525" t="n">
         <v>8000</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N528" t="n">
         <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P528" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42927,13 +42927,13 @@
         <v>100</v>
       </c>
       <c r="N532" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -43007,13 +43007,13 @@
         <v>50</v>
       </c>
       <c r="N533" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43167,13 +43167,13 @@
         <v>50</v>
       </c>
       <c r="N535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N542" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O542" t="n">
         <v>9000</v>
       </c>
       <c r="P542" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O544" t="n">
         <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N548" t="n">
         <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N550" t="n">
         <v>9000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P550" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,7 +44684,7 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N554" t="n">
         <v>9000</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,7 +44764,7 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
         <v>8000</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N556" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
         <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
         <v>100</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O557" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
         <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N560" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O560" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P560" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45570,10 +45570,10 @@
         <v>9000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P565" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45730,10 +45730,10 @@
         <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P567" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N568" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P568" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P571" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N575" t="n">
         <v>8000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N577" t="n">
         <v>8000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
         <v>100</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P579" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
         <v>100</v>
       </c>
       <c r="N580" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P580" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
         <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O581" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
         <v>100</v>
       </c>
       <c r="N582" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O582" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M583" t="n">
         <v>100</v>
       </c>
       <c r="N583" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
         <v>100</v>
       </c>
       <c r="N584" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O584" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
         <v>100</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
         <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O586" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P586" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N587" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O587" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P587" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47407,13 +47407,13 @@
         <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O588" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P588" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E589" t="n">
         <v>8</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47487,13 +47487,13 @@
         <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47567,13 +47567,13 @@
         <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N591" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
         <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N595" t="n">
         <v>9000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P595" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48047,13 +48047,13 @@
         <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O596" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P596" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E597" t="n">
         <v>8</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N597" t="n">
         <v>9000</v>
       </c>
       <c r="O597" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E598" t="n">
         <v>8</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48207,13 +48207,13 @@
         <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E599" t="n">
         <v>8</v>
@@ -48287,13 +48287,13 @@
         <v>200</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O599" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P599" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E600" t="n">
         <v>8</v>
@@ -48367,13 +48367,13 @@
         <v>100</v>
       </c>
       <c r="N600" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O600" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P600" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E601" t="n">
         <v>8</v>
@@ -48447,13 +48447,13 @@
         <v>200</v>
       </c>
       <c r="N601" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O601" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48527,13 +48527,13 @@
         <v>100</v>
       </c>
       <c r="N602" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O602" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P602" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N605" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
         <v>9000</v>
       </c>
       <c r="P605" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O607" t="n">
         <v>9000</v>
       </c>
       <c r="P607" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T607" t="n">
         <v>16</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E609" t="n">
         <v>8</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N609" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O609" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P609" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E610" t="n">
         <v>8</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O610" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P610" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
         <v>50</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O611" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P611" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E612" t="n">
         <v>8</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N612" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O612" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P612" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E613" t="n">
         <v>8</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N613" t="n">
         <v>8000</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E614" t="n">
         <v>8</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,7 +49484,7 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N614" t="n">
         <v>9000</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E615" t="n">
         <v>8</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49564,7 +49564,7 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N615" t="n">
         <v>8000</v>
@@ -49589,6 +49589,326 @@
         <v>500</v>
       </c>
       <c r="T615" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>11</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E616" t="n">
+        <v>8</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M616" t="n">
+        <v>200</v>
+      </c>
+      <c r="N616" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O616" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P616" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S616" t="n">
+        <v>594</v>
+      </c>
+      <c r="T616" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>11</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E617" t="n">
+        <v>8</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M617" t="n">
+        <v>100</v>
+      </c>
+      <c r="N617" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O617" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P617" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S617" t="n">
+        <v>500</v>
+      </c>
+      <c r="T617" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>11</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E618" t="n">
+        <v>8</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M618" t="n">
+        <v>200</v>
+      </c>
+      <c r="N618" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O618" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P618" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S618" t="n">
+        <v>594</v>
+      </c>
+      <c r="T618" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>11</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E619" t="n">
+        <v>8</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M619" t="n">
+        <v>100</v>
+      </c>
+      <c r="N619" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O619" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P619" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S619" t="n">
+        <v>500</v>
+      </c>
+      <c r="T619" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T624"/>
+  <dimension ref="A1:T627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E403" t="n">
         <v>8</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N403" t="n">
-        <v>11000</v>
+        <v>1200</v>
       </c>
       <c r="O403" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>11000</v>
+        <v>6444</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>688</v>
+        <v>403</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E404" t="n">
         <v>8</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="N404" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O404" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>9000</v>
+        <v>11455</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="T404" t="n">
         <v>16</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E405" t="n">
         <v>8</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N405" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P405" t="n">
-        <v>7000</v>
+        <v>10556</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>438</v>
+        <v>660</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N406" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O406" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P406" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
         <v>100</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N408" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O408" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P408" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N409" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P409" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N410" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P410" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33235,25 +33235,25 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
         <v>50</v>
       </c>
       <c r="N411" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O411" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P411" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E412" t="n">
         <v>8</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N412" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O412" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P412" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -33395,25 +33395,25 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N413" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O413" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P413" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E414" t="n">
         <v>8</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O414" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O415" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P415" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
         <v>100</v>
       </c>
       <c r="N416" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O416" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N417" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P417" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
         <v>100</v>
       </c>
       <c r="N418" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P418" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
         <v>100</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P419" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
         <v>100</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O420" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P420" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
         <v>100</v>
       </c>
       <c r="N421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P421" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E422" t="n">
         <v>8</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P422" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E423" t="n">
         <v>8</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N423" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P423" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E424" t="n">
         <v>8</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N424" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O424" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P424" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E428" t="n">
         <v>8</v>
@@ -34595,16 +34595,16 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N428" t="n">
         <v>12000</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E429" t="n">
         <v>8</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
         <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E430" t="n">
         <v>8</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,7 +34764,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N430" t="n">
         <v>8000</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E431" t="n">
         <v>8</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
         <v>200</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>594</v>
+        <v>750</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P433" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N434" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N435" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O435" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P435" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E437" t="n">
         <v>8</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E438" t="n">
         <v>8</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N438" t="n">
         <v>9000</v>
       </c>
       <c r="O438" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E439" t="n">
         <v>8</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35555,25 +35555,25 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N440" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O440" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P440" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E441" t="n">
         <v>8</v>
@@ -35635,12 +35635,12 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
@@ -35650,10 +35650,10 @@
         <v>9000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P441" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E443" t="n">
         <v>8</v>
@@ -35795,12 +35795,12 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
@@ -35810,10 +35810,10 @@
         <v>9000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P443" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N444" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O444" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E445" t="n">
         <v>8</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P445" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E446" t="n">
         <v>8</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P447" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N448" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O448" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N449" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N450" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E451" t="n">
         <v>8</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E452" t="n">
         <v>8</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
         <v>100</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E453" t="n">
         <v>8</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N453" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P453" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N454" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O454" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P454" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36835,25 +36835,25 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N457" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P457" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N458" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
         <v>100</v>
       </c>
       <c r="N459" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E460" t="n">
         <v>8</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N460" t="n">
         <v>9000</v>
       </c>
       <c r="O460" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E461" t="n">
         <v>8</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>100</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O462" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P462" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P463" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N464" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O464" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P464" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N465" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O465" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P465" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E467" t="n">
         <v>8</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
         <v>50</v>
       </c>
       <c r="N467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E468" t="n">
         <v>8</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37810,10 +37810,10 @@
         <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E469" t="n">
         <v>8</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P469" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
         <v>100</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E475" t="n">
         <v>8</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
         <v>100</v>
       </c>
       <c r="N475" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P475" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E476" t="n">
         <v>8</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N476" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E477" t="n">
         <v>8</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E478" t="n">
         <v>8</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
         <v>100</v>
       </c>
       <c r="N478" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O479" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N480" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E481" t="n">
         <v>8</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
         <v>100</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P481" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E482" t="n">
         <v>8</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N482" t="n">
         <v>9000</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,7 +39004,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N483" t="n">
         <v>8000</v>
@@ -39022,7 +39022,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S483" t="n">
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N484" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O484" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,7 +39164,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N485" t="n">
         <v>9000</v>
@@ -39182,7 +39182,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S485" t="n">
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P486" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,7 +39324,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N487" t="n">
         <v>8000</v>
@@ -39342,7 +39342,7 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N488" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O488" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N489" t="n">
         <v>9000</v>
@@ -39502,7 +39502,7 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S489" t="n">
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,7 +39644,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N491" t="n">
         <v>8000</v>
@@ -39662,7 +39662,7 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
         <v>100</v>
       </c>
       <c r="N492" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O492" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
         <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
         <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E496" t="n">
         <v>8</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E497" t="n">
         <v>8</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P497" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>100</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O498" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P498" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
         <v>100</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
         <v>100</v>
       </c>
       <c r="N500" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
         <v>100</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O501" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P501" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
         <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O503" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P503" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N504" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P505" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N506" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O506" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
         <v>50</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N508" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E509" t="n">
         <v>8</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E510" t="n">
         <v>8</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E511" t="n">
         <v>8</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N514" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P514" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O515" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P515" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N516" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O517" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P517" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N518" t="n">
         <v>9000</v>
       </c>
       <c r="O518" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N519" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O519" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N520" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O520" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P520" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P521" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>719</v>
+        <v>562</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N522" t="n">
         <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N523" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O523" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P523" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>719</v>
+        <v>562</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N524" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O524" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
         <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N526" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P526" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N527" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O527" t="n">
         <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N528" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N529" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N530" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P530" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>100</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P531" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N532" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E534" t="n">
         <v>8</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N534" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O534" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P534" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E535" t="n">
         <v>8</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
         <v>100</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N536" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P536" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N540" t="n">
         <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N541" t="n">
         <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P541" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
         <v>50</v>
       </c>
       <c r="N542" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N543" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
         <v>9000</v>
       </c>
       <c r="P543" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O544" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P544" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N545" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O545" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P545" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O546" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P546" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N547" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O547" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P547" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O549" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P549" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O550" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P550" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
         <v>50</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N552" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P552" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
         <v>50</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O553" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P553" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
         <v>50</v>
       </c>
       <c r="N554" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O554" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P554" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
         <v>50</v>
       </c>
       <c r="N555" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O555" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P555" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
         <v>50</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P556" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P557" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N558" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P558" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P559" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N560" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O560" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P560" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N561" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O561" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P561" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N562" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O562" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P562" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
         <v>100</v>
       </c>
       <c r="N563" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N564" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P564" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N565" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P565" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45650,10 +45650,10 @@
         <v>9000</v>
       </c>
       <c r="O566" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P566" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N567" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O567" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P567" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O568" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P568" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
         <v>100</v>
       </c>
       <c r="N569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
         <v>100</v>
       </c>
       <c r="N570" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O570" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P570" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
         <v>100</v>
       </c>
       <c r="N571" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P571" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
         <v>100</v>
       </c>
       <c r="N572" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P572" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46195,25 +46195,25 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
         <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P573" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
         <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P574" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46440,20 +46440,20 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
         <v>100</v>
       </c>
       <c r="N576" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P576" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N578" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O578" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N580" t="n">
         <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
         <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N582" t="n">
         <v>8000</v>
       </c>
       <c r="O582" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N583" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
         <v>100</v>
       </c>
       <c r="N584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
         <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P586" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
         <v>100</v>
       </c>
       <c r="N587" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O587" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P587" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
         <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P588" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E589" t="n">
         <v>8</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47487,13 +47487,13 @@
         <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47567,13 +47567,13 @@
         <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M594" t="n">
         <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O594" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
         <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O596" t="n">
         <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E597" t="n">
         <v>8</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
         <v>100</v>
       </c>
       <c r="N597" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O597" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E598" t="n">
         <v>8</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
         <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O598" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P598" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N599" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O599" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P599" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
         <v>100</v>
       </c>
       <c r="N600" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O600" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P600" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
         <v>100</v>
       </c>
       <c r="N601" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O601" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P601" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
         <v>100</v>
       </c>
       <c r="N602" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O602" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P602" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
         <v>100</v>
       </c>
       <c r="N603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E604" t="n">
         <v>8</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N604" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P604" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E605" t="n">
         <v>8</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>100</v>
       </c>
       <c r="N605" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O605" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P605" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E606" t="n">
         <v>8</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P606" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T606" t="n">
         <v>16</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N607" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O607" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T607" t="n">
         <v>16</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N608" t="n">
         <v>8000</v>
       </c>
       <c r="O608" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P608" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E609" t="n">
         <v>8</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N609" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O609" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E610" t="n">
         <v>8</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N610" t="n">
         <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N611" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P611" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N612" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O612" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P612" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N613" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P613" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T613" t="n">
         <v>16</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
         <v>100</v>
       </c>
       <c r="N614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P614" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T614" t="n">
         <v>16</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N615" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O615" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P615" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E616" t="n">
         <v>8</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N616" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O616" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P616" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E617" t="n">
         <v>8</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N617" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P617" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E618" t="n">
         <v>8</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N618" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O618" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P618" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N619" t="n">
         <v>9000</v>
       </c>
       <c r="O619" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P619" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E621" t="n">
         <v>8</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O621" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P621" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E622" t="n">
         <v>8</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
         <v>100</v>
       </c>
       <c r="N622" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E623" t="n">
         <v>8</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O623" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P623" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50275,40 +50275,280 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M624" t="n">
+        <v>200</v>
+      </c>
+      <c r="N624" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O624" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P624" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
+        <v>594</v>
+      </c>
+      <c r="T624" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>11</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E625" t="n">
+        <v>8</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M625" t="n">
+        <v>100</v>
+      </c>
+      <c r="N625" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O625" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P625" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S625" t="n">
+        <v>500</v>
+      </c>
+      <c r="T625" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>11</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E626" t="n">
+        <v>8</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G626" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
           <t>Granny Smith</t>
         </is>
       </c>
-      <c r="L624" t="inlineStr">
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M626" t="n">
+        <v>200</v>
+      </c>
+      <c r="N626" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O626" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P626" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S626" t="n">
+        <v>594</v>
+      </c>
+      <c r="T626" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>11</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E627" t="n">
+        <v>8</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G627" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M624" t="n">
+      <c r="M627" t="n">
         <v>100</v>
       </c>
-      <c r="N624" t="n">
-        <v>8000</v>
-      </c>
-      <c r="O624" t="n">
-        <v>8000</v>
-      </c>
-      <c r="P624" t="n">
-        <v>8000</v>
-      </c>
-      <c r="Q624" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R624" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S624" t="n">
+      <c r="N627" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O627" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P627" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S627" t="n">
         <v>500</v>
       </c>
-      <c r="T624" t="n">
+      <c r="T627" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T627"/>
+  <dimension ref="A1:T632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45800,24 +45800,24 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P568" t="n">
-        <v>10000</v>
+        <v>8222</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R568" t="inlineStr">
@@ -45826,10 +45826,10 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>625</v>
+        <v>484</v>
       </c>
       <c r="T568" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="569">
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E569" t="n">
         <v>8</v>
@@ -45880,24 +45880,24 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N569" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O569" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P569" t="n">
-        <v>9000</v>
+        <v>7722</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="T569" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E570" t="n">
         <v>8</v>
@@ -45955,29 +45955,29 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N570" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O570" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P570" t="n">
-        <v>7000</v>
+        <v>8556</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
@@ -45986,10 +45986,10 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="T570" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46040,24 +46040,24 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N571" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O571" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P571" t="n">
-        <v>9000</v>
+        <v>7278</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
@@ -46066,10 +46066,10 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>562</v>
+        <v>428</v>
       </c>
       <c r="T571" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,20 +46124,20 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N572" t="n">
         <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P572" t="n">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
@@ -46146,10 +46146,10 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="T572" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -46195,25 +46195,25 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
         <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O574" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P574" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M575" t="n">
         <v>100</v>
       </c>
       <c r="N575" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O575" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P575" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
         <v>100</v>
       </c>
       <c r="N576" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O576" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P576" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E577" t="n">
         <v>8</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
         <v>100</v>
       </c>
       <c r="N577" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P577" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E578" t="n">
         <v>8</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N578" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P578" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
         <v>100</v>
       </c>
       <c r="N579" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O579" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P579" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
         <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P581" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N582" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E583" t="n">
         <v>8</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N583" t="n">
         <v>8000</v>
       </c>
       <c r="O583" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P583" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E584" t="n">
         <v>8</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M584" t="n">
         <v>100</v>
       </c>
       <c r="N584" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O584" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E585" t="n">
         <v>8</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N585" t="n">
         <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E586" t="n">
         <v>8</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
         <v>100</v>
       </c>
       <c r="N586" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O586" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,16 +47315,16 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N587" t="n">
         <v>8000</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N588" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O588" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P588" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
         <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N590" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P590" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E591" t="n">
         <v>8</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
         <v>100</v>
       </c>
       <c r="N591" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P591" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E592" t="n">
         <v>8</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47727,13 +47727,13 @@
         <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P592" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T592" t="n">
         <v>16</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47807,13 +47807,13 @@
         <v>100</v>
       </c>
       <c r="N593" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O593" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P593" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E594" t="n">
         <v>8</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
         <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O594" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P594" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
         <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P595" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48207,13 +48207,13 @@
         <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P598" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E599" t="n">
         <v>8</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>531</v>
+        <v>750</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E600" t="n">
         <v>8</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
         <v>100</v>
       </c>
       <c r="N600" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O600" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P600" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E601" t="n">
         <v>8</v>
@@ -48440,7 +48440,7 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
         <v>100</v>
       </c>
       <c r="N602" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O602" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P602" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>438</v>
+        <v>625</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E603" t="n">
         <v>8</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
         <v>100</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N604" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O604" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P604" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>100</v>
       </c>
       <c r="N605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
         <v>100</v>
       </c>
       <c r="N606" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O606" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P606" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T606" t="n">
         <v>16</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O607" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P607" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T607" t="n">
         <v>16</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
         <v>100</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E609" t="n">
         <v>8</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P609" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E610" t="n">
         <v>8</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O610" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P610" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E611" t="n">
         <v>8</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O611" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P611" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E612" t="n">
         <v>8</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N612" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E613" t="n">
         <v>8</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N613" t="n">
         <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P613" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
         <v>16</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E614" t="n">
         <v>8</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N614" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O614" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P614" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T614" t="n">
         <v>16</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E615" t="n">
         <v>8</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N615" t="n">
         <v>8000</v>
       </c>
       <c r="O615" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P615" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N616" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P616" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
         <v>100</v>
       </c>
       <c r="N617" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O617" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P617" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O618" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P618" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E619" t="n">
         <v>8</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N619" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O619" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P619" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E620" t="n">
         <v>8</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N620" t="n">
         <v>8000</v>
       </c>
       <c r="O620" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P620" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E621" t="n">
         <v>8</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O621" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P621" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E622" t="n">
         <v>8</v>
@@ -50130,10 +50130,10 @@
         <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P622" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="E623" t="n">
         <v>8</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P623" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E624" t="n">
         <v>8</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N624" t="n">
         <v>9000</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P624" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T624" t="n">
         <v>16</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E625" t="n">
         <v>8</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,7 +50364,7 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N625" t="n">
         <v>8000</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E626" t="n">
         <v>8</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N626" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O626" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P626" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T626" t="n">
         <v>16</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44432</v>
+        <v>44461</v>
       </c>
       <c r="E627" t="n">
         <v>8</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
         <v>100</v>
       </c>
       <c r="N627" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O627" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P627" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,9 +50546,409 @@
         </is>
       </c>
       <c r="S627" t="n">
+        <v>594</v>
+      </c>
+      <c r="T627" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>11</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E628" t="n">
+        <v>8</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G628" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M628" t="n">
+        <v>50</v>
+      </c>
+      <c r="N628" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O628" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P628" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S628" t="n">
         <v>500</v>
       </c>
-      <c r="T627" t="n">
+      <c r="T628" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>11</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E629" t="n">
+        <v>8</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G629" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M629" t="n">
+        <v>200</v>
+      </c>
+      <c r="N629" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O629" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P629" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q629" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S629" t="n">
+        <v>594</v>
+      </c>
+      <c r="T629" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>11</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E630" t="n">
+        <v>8</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G630" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M630" t="n">
+        <v>100</v>
+      </c>
+      <c r="N630" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O630" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P630" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q630" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S630" t="n">
+        <v>500</v>
+      </c>
+      <c r="T630" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>11</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E631" t="n">
+        <v>8</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G631" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M631" t="n">
+        <v>200</v>
+      </c>
+      <c r="N631" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O631" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P631" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S631" t="n">
+        <v>594</v>
+      </c>
+      <c r="T631" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>11</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E632" t="n">
+        <v>8</v>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G632" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M632" t="n">
+        <v>100</v>
+      </c>
+      <c r="N632" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O632" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P632" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q632" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S632" t="n">
+        <v>500</v>
+      </c>
+      <c r="T632" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T654"/>
+  <dimension ref="A1:T660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E553" t="n">
         <v>8</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N553" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E554" t="n">
         <v>8</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N554" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O554" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E555" t="n">
         <v>8</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N555" t="n">
         <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O556" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P556" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N557" t="n">
         <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P557" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N558" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O558" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P558" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O559" t="n">
         <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E561" t="n">
         <v>8</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N561" t="n">
         <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P561" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N562" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O562" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P562" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E563" t="n">
         <v>8</v>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N563" t="n">
         <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P563" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E564" t="n">
         <v>8</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44449</v>
+        <v>44384</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N565" t="n">
         <v>9000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P565" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44449</v>
+        <v>44384</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45647,13 +45647,13 @@
         <v>50</v>
       </c>
       <c r="N566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,7 +45724,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N567" t="n">
         <v>9000</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,7 +45804,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N568" t="n">
         <v>8000</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E569" t="n">
         <v>8</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,7 +45884,7 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N569" t="n">
         <v>9000</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E570" t="n">
         <v>8</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45964,7 +45964,7 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N570" t="n">
         <v>8000</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P571" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46210,10 +46210,10 @@
         <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46370,10 +46370,10 @@
         <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N577" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O577" t="n">
         <v>9000</v>
       </c>
       <c r="P577" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
         <v>9000</v>
       </c>
       <c r="P579" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N581" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
         <v>9000</v>
       </c>
       <c r="P581" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E583" t="n">
         <v>8</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47007,13 +47007,13 @@
         <v>100</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E584" t="n">
         <v>8</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N585" t="n">
         <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N587" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O587" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P587" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>625</v>
+        <v>531</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O588" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P588" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E589" t="n">
         <v>8</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P589" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44342</v>
+        <v>44400</v>
       </c>
       <c r="E591" t="n">
         <v>8</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N591" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P591" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44342</v>
+        <v>44400</v>
       </c>
       <c r="E592" t="n">
         <v>8</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
         <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O592" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P592" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T592" t="n">
         <v>16</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N593" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O593" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P593" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E594" t="n">
         <v>8</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O594" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P594" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>50</v>
       </c>
       <c r="N596" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O596" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M597" t="n">
         <v>50</v>
       </c>
       <c r="N597" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O597" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P597" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48204,7 +48204,7 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N598" t="n">
         <v>10000</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,7 +48284,7 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N599" t="n">
         <v>8000</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,7 +48364,7 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N600" t="n">
         <v>10000</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,7 +48444,7 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N601" t="n">
         <v>8000</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
         <v>50</v>
       </c>
       <c r="N602" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O602" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P602" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E603" t="n">
         <v>8</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E604" t="n">
         <v>8</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N604" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O604" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P604" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E605" t="n">
         <v>8</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>50</v>
       </c>
       <c r="N605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P605" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E606" t="n">
         <v>8</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N606" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O606" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P606" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T606" t="n">
         <v>16</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N607" t="n">
         <v>8000</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N608" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O608" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P608" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
         <v>100</v>
       </c>
       <c r="N609" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O609" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O611" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P611" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E612" t="n">
         <v>8</v>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N612" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P612" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E613" t="n">
         <v>8</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49407,13 +49407,13 @@
         <v>100</v>
       </c>
       <c r="N613" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P613" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
         <v>16</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E614" t="n">
         <v>8</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O614" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P614" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T614" t="n">
         <v>16</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E615" t="n">
         <v>8</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49567,13 +49567,13 @@
         <v>100</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O615" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P615" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E616" t="n">
         <v>8</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N616" t="n">
         <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E617" t="n">
         <v>8</v>
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49727,13 +49727,13 @@
         <v>100</v>
       </c>
       <c r="N617" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O617" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P617" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,7 +49804,7 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N618" t="n">
         <v>10000</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,7 +49884,7 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N619" t="n">
         <v>9000</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E620" t="n">
         <v>8</v>
@@ -49967,13 +49967,13 @@
         <v>200</v>
       </c>
       <c r="N620" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P620" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E621" t="n">
         <v>8</v>
@@ -50047,13 +50047,13 @@
         <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O621" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P621" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E622" t="n">
         <v>8</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50127,13 +50127,13 @@
         <v>200</v>
       </c>
       <c r="N622" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P622" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E623" t="n">
         <v>8</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50207,13 +50207,13 @@
         <v>100</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P623" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E624" t="n">
         <v>8</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N624" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P624" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T624" t="n">
         <v>16</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E625" t="n">
         <v>8</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N625" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O625" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P625" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T625" t="n">
         <v>16</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E626" t="n">
         <v>8</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E627" t="n">
         <v>8</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E628" t="n">
         <v>8</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N628" t="n">
         <v>9000</v>
       </c>
       <c r="O628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T628" t="n">
         <v>16</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E629" t="n">
         <v>8</v>
@@ -50687,13 +50687,13 @@
         <v>100</v>
       </c>
       <c r="N629" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
         <v>16</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E630" t="n">
         <v>8</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E631" t="n">
         <v>8</v>
@@ -50847,13 +50847,13 @@
         <v>100</v>
       </c>
       <c r="N631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T631" t="n">
         <v>16</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E632" t="n">
         <v>8</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E633" t="n">
         <v>8</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E634" t="n">
         <v>8</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N634" t="n">
         <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T634" t="n">
         <v>16</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -51167,13 +51167,13 @@
         <v>100</v>
       </c>
       <c r="N635" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O635" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P635" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T635" t="n">
         <v>16</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E638" t="n">
         <v>8</v>
@@ -51407,13 +51407,13 @@
         <v>200</v>
       </c>
       <c r="N638" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O638" t="n">
         <v>10000</v>
       </c>
-      <c r="O638" t="n">
-        <v>11000</v>
-      </c>
       <c r="P638" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T638" t="n">
         <v>16</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E639" t="n">
         <v>8</v>
@@ -51487,13 +51487,13 @@
         <v>100</v>
       </c>
       <c r="N639" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O639" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P639" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T639" t="n">
         <v>16</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E640" t="n">
         <v>8</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51567,13 +51567,13 @@
         <v>200</v>
       </c>
       <c r="N640" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O640" t="n">
         <v>10000</v>
       </c>
-      <c r="O640" t="n">
-        <v>11000</v>
-      </c>
       <c r="P640" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E641" t="n">
         <v>8</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51647,13 +51647,13 @@
         <v>100</v>
       </c>
       <c r="N641" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E642" t="n">
         <v>8</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N642" t="n">
         <v>9000</v>
@@ -51742,7 +51742,7 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E643" t="n">
         <v>8</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,7 +51804,7 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N643" t="n">
         <v>8000</v>
@@ -51822,7 +51822,7 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N644" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P644" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E646" t="n">
         <v>8</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N646" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O646" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E647" t="n">
         <v>8</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N647" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O647" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P647" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N648" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O648" t="n">
         <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T648" t="n">
         <v>16</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E650" t="n">
         <v>8</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,32 +52364,32 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N650" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O650" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P650" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T650" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E651" t="n">
         <v>8</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,32 +52444,32 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N651" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O651" t="n">
         <v>8000</v>
       </c>
       <c r="P651" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T651" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E652" t="n">
         <v>8</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,32 +52524,32 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N652" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O652" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P652" t="n">
-        <v>8556</v>
+        <v>9500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>503</v>
+        <v>594</v>
       </c>
       <c r="T652" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E653" t="n">
         <v>8</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N653" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O653" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>7278</v>
+        <v>8000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T653" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="654">
@@ -52647,68 +52647,548 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E654" t="n">
+        <v>8</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M654" t="n">
+        <v>50</v>
+      </c>
+      <c r="N654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
+        <v>625</v>
+      </c>
+      <c r="T654" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>11</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E655" t="n">
+        <v>8</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M655" t="n">
+        <v>50</v>
+      </c>
+      <c r="N655" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O655" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P655" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
+        <v>500</v>
+      </c>
+      <c r="T655" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>11</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D656" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E654" t="n">
-        <v>8</v>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G654" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I654" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J654" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K654" t="inlineStr">
+      <c r="E656" t="n">
+        <v>8</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G656" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M656" t="n">
+        <v>450</v>
+      </c>
+      <c r="N656" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O656" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P656" t="n">
+        <v>8222</v>
+      </c>
+      <c r="Q656" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S656" t="n">
+        <v>484</v>
+      </c>
+      <c r="T656" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>11</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E657" t="n">
+        <v>8</v>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G657" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M657" t="n">
+        <v>450</v>
+      </c>
+      <c r="N657" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O657" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P657" t="n">
+        <v>7722</v>
+      </c>
+      <c r="Q657" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S657" t="n">
+        <v>454</v>
+      </c>
+      <c r="T657" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>11</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E658" t="n">
+        <v>8</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M658" t="n">
+        <v>450</v>
+      </c>
+      <c r="N658" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O658" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P658" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q658" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R658" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S658" t="n">
+        <v>503</v>
+      </c>
+      <c r="T658" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>11</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E659" t="n">
+        <v>8</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G659" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M659" t="n">
+        <v>450</v>
+      </c>
+      <c r="N659" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O659" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P659" t="n">
+        <v>7278</v>
+      </c>
+      <c r="Q659" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R659" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S659" t="n">
+        <v>428</v>
+      </c>
+      <c r="T659" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>11</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E660" t="n">
+        <v>8</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G660" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L654" t="inlineStr">
+      <c r="L660" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M654" t="n">
+      <c r="M660" t="n">
         <v>250</v>
       </c>
-      <c r="N654" t="n">
+      <c r="N660" t="n">
         <v>7000</v>
       </c>
-      <c r="O654" t="n">
+      <c r="O660" t="n">
         <v>7500</v>
       </c>
-      <c r="P654" t="n">
+      <c r="P660" t="n">
         <v>7300</v>
       </c>
-      <c r="Q654" t="inlineStr">
+      <c r="Q660" t="inlineStr">
         <is>
           <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
-      <c r="R654" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S654" t="n">
+      <c r="R660" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S660" t="n">
         <v>429</v>
       </c>
-      <c r="T654" t="n">
+      <c r="T660" t="n">
         <v>17</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T660"/>
+  <dimension ref="A1:T666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45724,7 +45724,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N567" t="n">
         <v>9000</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45804,7 +45804,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N568" t="n">
         <v>8000</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E569" t="n">
         <v>8</v>
@@ -45884,7 +45884,7 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N569" t="n">
         <v>9000</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E570" t="n">
         <v>8</v>
@@ -45964,7 +45964,7 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N570" t="n">
         <v>8000</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44449</v>
+        <v>44505</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44449</v>
+        <v>44505</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,7 +46204,7 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N573" t="n">
         <v>9000</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,7 +46284,7 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N574" t="n">
         <v>8000</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,7 +46364,7 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N575" t="n">
         <v>9000</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,7 +46444,7 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N576" t="n">
         <v>8000</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E577" t="n">
         <v>8</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O577" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E578" t="n">
         <v>8</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46690,10 +46690,10 @@
         <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46850,10 +46850,10 @@
         <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N583" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O583" t="n">
         <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E585" t="n">
         <v>8</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N585" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O585" t="n">
         <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E586" t="n">
         <v>8</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O587" t="n">
         <v>9000</v>
       </c>
       <c r="P587" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E589" t="n">
         <v>8</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47487,13 +47487,13 @@
         <v>100</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N591" t="n">
         <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N593" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O593" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P593" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>625</v>
+        <v>531</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E594" t="n">
         <v>8</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O594" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P594" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P595" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O596" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P596" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44342</v>
+        <v>44400</v>
       </c>
       <c r="E597" t="n">
         <v>8</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P597" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44342</v>
+        <v>44400</v>
       </c>
       <c r="E598" t="n">
         <v>8</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
         <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P598" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E599" t="n">
         <v>8</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O599" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P599" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E600" t="n">
         <v>8</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E601" t="n">
         <v>8</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
         <v>50</v>
       </c>
       <c r="N602" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P602" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
         <v>50</v>
       </c>
       <c r="N603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48684,7 +48684,7 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N604" t="n">
         <v>10000</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,7 +48764,7 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N605" t="n">
         <v>8000</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
         <v>10000</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N607" t="n">
         <v>8000</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M608" t="n">
         <v>50</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E609" t="n">
         <v>8</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N609" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P609" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E610" t="n">
         <v>8</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E611" t="n">
         <v>8</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
         <v>50</v>
       </c>
       <c r="N611" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P611" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E612" t="n">
         <v>8</v>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E613" t="n">
         <v>8</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N613" t="n">
         <v>8000</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N614" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O614" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P614" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T614" t="n">
         <v>16</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
         <v>100</v>
       </c>
       <c r="N615" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O615" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P615" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>100</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P616" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N617" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O617" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P617" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E618" t="n">
         <v>8</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N618" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O618" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P618" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E619" t="n">
         <v>8</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49887,13 +49887,13 @@
         <v>100</v>
       </c>
       <c r="N619" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O619" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P619" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E620" t="n">
         <v>8</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N620" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O620" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P620" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E621" t="n">
         <v>8</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50047,13 +50047,13 @@
         <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O621" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P621" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E622" t="n">
         <v>8</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N622" t="n">
         <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E623" t="n">
         <v>8</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50207,13 +50207,13 @@
         <v>100</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,7 +50284,7 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N624" t="n">
         <v>10000</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,7 +50364,7 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N625" t="n">
         <v>9000</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E626" t="n">
         <v>8</v>
@@ -50447,13 +50447,13 @@
         <v>200</v>
       </c>
       <c r="N626" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O626" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P626" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T626" t="n">
         <v>16</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E627" t="n">
         <v>8</v>
@@ -50527,13 +50527,13 @@
         <v>100</v>
       </c>
       <c r="N627" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O627" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P627" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T627" t="n">
         <v>16</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E628" t="n">
         <v>8</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50607,13 +50607,13 @@
         <v>200</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O628" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P628" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T628" t="n">
         <v>16</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E629" t="n">
         <v>8</v>
@@ -50675,7 +50675,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -50687,13 +50687,13 @@
         <v>100</v>
       </c>
       <c r="N629" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O629" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P629" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T629" t="n">
         <v>16</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E630" t="n">
         <v>8</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N630" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O630" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P630" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T630" t="n">
         <v>16</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E631" t="n">
         <v>8</v>
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N631" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P631" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T631" t="n">
         <v>16</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E632" t="n">
         <v>8</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E633" t="n">
         <v>8</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E634" t="n">
         <v>8</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N634" t="n">
         <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P634" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T634" t="n">
         <v>16</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -51167,13 +51167,13 @@
         <v>100</v>
       </c>
       <c r="N635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T635" t="n">
         <v>16</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E636" t="n">
         <v>8</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E637" t="n">
         <v>8</v>
@@ -51327,13 +51327,13 @@
         <v>100</v>
       </c>
       <c r="N637" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O637" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P637" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T637" t="n">
         <v>16</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E638" t="n">
         <v>8</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E639" t="n">
         <v>8</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E640" t="n">
         <v>8</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N640" t="n">
         <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P640" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E641" t="n">
         <v>8</v>
@@ -51647,13 +51647,13 @@
         <v>100</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51887,13 +51887,13 @@
         <v>200</v>
       </c>
       <c r="N644" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O644" t="n">
         <v>10000</v>
       </c>
-      <c r="O644" t="n">
-        <v>11000</v>
-      </c>
       <c r="P644" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51967,13 +51967,13 @@
         <v>100</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O645" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P645" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E646" t="n">
         <v>8</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52047,13 +52047,13 @@
         <v>200</v>
       </c>
       <c r="N646" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O646" t="n">
         <v>10000</v>
       </c>
-      <c r="O646" t="n">
-        <v>11000</v>
-      </c>
       <c r="P646" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E647" t="n">
         <v>8</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52127,13 +52127,13 @@
         <v>100</v>
       </c>
       <c r="N647" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O647" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P647" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E648" t="n">
         <v>8</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,7 +52204,7 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N648" t="n">
         <v>9000</v>
@@ -52222,7 +52222,7 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S648" t="n">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E649" t="n">
         <v>8</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,7 +52284,7 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N649" t="n">
         <v>8000</v>
@@ -52302,7 +52302,7 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E650" t="n">
         <v>8</v>
@@ -52364,16 +52364,16 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N650" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O650" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P650" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T650" t="n">
         <v>16</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E651" t="n">
         <v>8</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N651" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O651" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P651" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T651" t="n">
         <v>16</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E652" t="n">
         <v>8</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P652" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T652" t="n">
         <v>16</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E653" t="n">
         <v>8</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T653" t="n">
         <v>16</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O654" t="n">
         <v>10000</v>
       </c>
       <c r="P654" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T654" t="n">
         <v>16</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E656" t="n">
         <v>8</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,32 +52844,32 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N656" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O656" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P656" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T656" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E657" t="n">
         <v>8</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,32 +52924,32 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N657" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O657" t="n">
         <v>8000</v>
       </c>
       <c r="P657" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T657" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E658" t="n">
         <v>8</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,32 +53004,32 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N658" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>8556</v>
+        <v>9500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>503</v>
+        <v>594</v>
       </c>
       <c r="T658" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E659" t="n">
         <v>8</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,32 +53084,32 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N659" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P659" t="n">
-        <v>7278</v>
+        <v>8000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T659" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="660">
@@ -53127,68 +53127,548 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E660" t="n">
+        <v>8</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G660" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M660" t="n">
+        <v>50</v>
+      </c>
+      <c r="N660" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O660" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P660" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q660" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R660" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S660" t="n">
+        <v>625</v>
+      </c>
+      <c r="T660" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>11</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E661" t="n">
+        <v>8</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G661" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M661" t="n">
+        <v>50</v>
+      </c>
+      <c r="N661" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O661" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P661" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q661" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R661" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S661" t="n">
+        <v>500</v>
+      </c>
+      <c r="T661" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>11</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D662" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E660" t="n">
-        <v>8</v>
-      </c>
-      <c r="F660" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G660" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I660" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J660" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K660" t="inlineStr">
+      <c r="E662" t="n">
+        <v>8</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M662" t="n">
+        <v>450</v>
+      </c>
+      <c r="N662" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O662" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P662" t="n">
+        <v>8222</v>
+      </c>
+      <c r="Q662" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S662" t="n">
+        <v>484</v>
+      </c>
+      <c r="T662" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>11</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E663" t="n">
+        <v>8</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M663" t="n">
+        <v>450</v>
+      </c>
+      <c r="N663" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O663" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P663" t="n">
+        <v>7722</v>
+      </c>
+      <c r="Q663" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R663" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S663" t="n">
+        <v>454</v>
+      </c>
+      <c r="T663" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>11</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E664" t="n">
+        <v>8</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M664" t="n">
+        <v>450</v>
+      </c>
+      <c r="N664" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O664" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P664" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q664" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R664" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S664" t="n">
+        <v>503</v>
+      </c>
+      <c r="T664" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>11</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E665" t="n">
+        <v>8</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M665" t="n">
+        <v>450</v>
+      </c>
+      <c r="N665" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O665" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P665" t="n">
+        <v>7278</v>
+      </c>
+      <c r="Q665" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R665" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S665" t="n">
+        <v>428</v>
+      </c>
+      <c r="T665" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>11</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E666" t="n">
+        <v>8</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G666" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L660" t="inlineStr">
+      <c r="L666" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M660" t="n">
+      <c r="M666" t="n">
         <v>250</v>
       </c>
-      <c r="N660" t="n">
+      <c r="N666" t="n">
         <v>7000</v>
       </c>
-      <c r="O660" t="n">
+      <c r="O666" t="n">
         <v>7500</v>
       </c>
-      <c r="P660" t="n">
+      <c r="P666" t="n">
         <v>7300</v>
       </c>
-      <c r="Q660" t="inlineStr">
+      <c r="Q666" t="inlineStr">
         <is>
           <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
-      <c r="R660" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S660" t="n">
+      <c r="R666" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S666" t="n">
         <v>429</v>
       </c>
-      <c r="T660" t="n">
+      <c r="T666" t="n">
         <v>17</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T666"/>
+  <dimension ref="A1:T670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E632" t="n">
         <v>8</v>
@@ -50915,7 +50915,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -50924,16 +50924,16 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N632" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O632" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="T632" t="n">
         <v>16</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E633" t="n">
         <v>8</v>
@@ -50995,7 +50995,7 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O633" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P633" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T633" t="n">
         <v>16</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E634" t="n">
         <v>8</v>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P634" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="T634" t="n">
         <v>16</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N635" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O635" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P635" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T635" t="n">
         <v>16</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E636" t="n">
         <v>8</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E637" t="n">
         <v>8</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51327,13 +51327,13 @@
         <v>100</v>
       </c>
       <c r="N637" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O637" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P637" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T637" t="n">
         <v>16</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E638" t="n">
         <v>8</v>
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E639" t="n">
         <v>8</v>
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N640" t="n">
         <v>9000</v>
       </c>
       <c r="O640" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E642" t="n">
         <v>8</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E643" t="n">
         <v>8</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N644" t="n">
         <v>9000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P644" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51967,13 +51967,13 @@
         <v>100</v>
       </c>
       <c r="N645" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O645" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P645" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E650" t="n">
         <v>8</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52367,13 +52367,13 @@
         <v>200</v>
       </c>
       <c r="N650" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O650" t="n">
         <v>10000</v>
       </c>
-      <c r="O650" t="n">
-        <v>11000</v>
-      </c>
       <c r="P650" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T650" t="n">
         <v>16</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E651" t="n">
         <v>8</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52447,13 +52447,13 @@
         <v>100</v>
       </c>
       <c r="N651" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O651" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P651" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T651" t="n">
         <v>16</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E652" t="n">
         <v>8</v>
@@ -52527,13 +52527,13 @@
         <v>200</v>
       </c>
       <c r="N652" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O652" t="n">
         <v>10000</v>
       </c>
-      <c r="O652" t="n">
-        <v>11000</v>
-      </c>
       <c r="P652" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T652" t="n">
         <v>16</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E653" t="n">
         <v>8</v>
@@ -52607,13 +52607,13 @@
         <v>100</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T653" t="n">
         <v>16</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E654" t="n">
         <v>8</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P654" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T654" t="n">
         <v>16</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E655" t="n">
         <v>8</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N655" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P655" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T655" t="n">
         <v>16</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E656" t="n">
         <v>8</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N656" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O656" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T656" t="n">
         <v>16</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E657" t="n">
         <v>8</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O657" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N660" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O660" t="n">
         <v>10000</v>
       </c>
       <c r="P660" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T660" t="n">
         <v>16</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E662" t="n">
         <v>8</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,32 +53324,32 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O662" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T662" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E663" t="n">
         <v>8</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,32 +53404,32 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N663" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O663" t="n">
         <v>8000</v>
       </c>
       <c r="P663" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T663" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E664" t="n">
         <v>8</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,32 +53484,32 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N664" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>503</v>
+        <v>625</v>
       </c>
       <c r="T664" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E665" t="n">
         <v>8</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,32 +53564,32 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N665" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>7278</v>
+        <v>8000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T665" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666">
@@ -53635,40 +53635,360 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M666" t="n">
+        <v>450</v>
+      </c>
+      <c r="N666" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O666" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P666" t="n">
+        <v>8222</v>
+      </c>
+      <c r="Q666" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R666" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S666" t="n">
+        <v>484</v>
+      </c>
+      <c r="T666" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>11</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D667" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E667" t="n">
+        <v>8</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M667" t="n">
+        <v>450</v>
+      </c>
+      <c r="N667" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O667" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P667" t="n">
+        <v>7722</v>
+      </c>
+      <c r="Q667" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R667" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S667" t="n">
+        <v>454</v>
+      </c>
+      <c r="T667" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>11</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E668" t="n">
+        <v>8</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G668" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M668" t="n">
+        <v>450</v>
+      </c>
+      <c r="N668" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O668" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P668" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q668" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R668" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S668" t="n">
+        <v>503</v>
+      </c>
+      <c r="T668" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>11</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E669" t="n">
+        <v>8</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G669" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M669" t="n">
+        <v>450</v>
+      </c>
+      <c r="N669" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O669" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P669" t="n">
+        <v>7278</v>
+      </c>
+      <c r="Q669" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R669" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S669" t="n">
+        <v>428</v>
+      </c>
+      <c r="T669" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>11</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E670" t="n">
+        <v>8</v>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G670" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L666" t="inlineStr">
+      <c r="L670" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M666" t="n">
+      <c r="M670" t="n">
         <v>250</v>
       </c>
-      <c r="N666" t="n">
+      <c r="N670" t="n">
         <v>7000</v>
       </c>
-      <c r="O666" t="n">
+      <c r="O670" t="n">
         <v>7500</v>
       </c>
-      <c r="P666" t="n">
+      <c r="P670" t="n">
         <v>7300</v>
       </c>
-      <c r="Q666" t="inlineStr">
+      <c r="Q670" t="inlineStr">
         <is>
           <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
-      <c r="R666" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S666" t="n">
+      <c r="R670" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S670" t="n">
         <v>429</v>
       </c>
-      <c r="T666" t="n">
+      <c r="T670" t="n">
         <v>17</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T673"/>
+  <dimension ref="A1:T676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43724,20 +43724,20 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N542" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P542" t="n">
-        <v>9500</v>
+        <v>10400</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
@@ -43746,10 +43746,10 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="T542" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43804,20 +43804,20 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N543" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P543" t="n">
-        <v>8000</v>
+        <v>9214</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
@@ -43826,10 +43826,10 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="T543" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43884,20 +43884,20 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P544" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
@@ -43906,10 +43906,10 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="T544" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="545">
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N545" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P545" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P546" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O547" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
         <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N549" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E550" t="n">
         <v>8</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
         <v>100</v>
       </c>
       <c r="N550" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P550" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N551" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E552" t="n">
         <v>8</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N552" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O552" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N553" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O553" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M554" t="n">
         <v>50</v>
       </c>
       <c r="N554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P554" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N556" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O556" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P556" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N557" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P557" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N558" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O558" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P558" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N559" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P559" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N560" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P560" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N561" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
@@ -45315,12 +45315,12 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
@@ -45330,10 +45330,10 @@
         <v>8000</v>
       </c>
       <c r="O562" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P562" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E563" t="n">
         <v>8</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N563" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E564" t="n">
         <v>8</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N564" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O564" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P564" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N565" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O565" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P565" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
         <v>50</v>
       </c>
       <c r="N566" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O566" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P566" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
         <v>50</v>
       </c>
       <c r="N567" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P567" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
         <v>50</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O568" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P568" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
         <v>50</v>
       </c>
       <c r="N569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E570" t="n">
         <v>8</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N570" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O570" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P570" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
         <v>50</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P571" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N572" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P572" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46195,25 +46195,25 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N574" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O575" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N576" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P576" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E577" t="n">
         <v>8</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
         <v>100</v>
       </c>
       <c r="N577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O577" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E578" t="n">
         <v>8</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N578" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O578" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P578" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N579" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M580" t="n">
         <v>100</v>
       </c>
       <c r="N580" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N581" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
         <v>100</v>
       </c>
       <c r="N582" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O582" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P582" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P583" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N584" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O584" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N585" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O585" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E586" t="n">
         <v>8</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N586" t="n">
         <v>8000</v>
       </c>
       <c r="O586" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P586" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
         <v>100</v>
       </c>
       <c r="N587" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O587" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P587" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N588" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O588" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N589" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O589" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P589" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M590" t="n">
         <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P590" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
         <v>100</v>
       </c>
       <c r="N591" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O591" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
         <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O592" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P592" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T592" t="n">
         <v>16</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
         <v>100</v>
       </c>
       <c r="N593" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O593" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P593" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E594" t="n">
         <v>8</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N594" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O594" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P594" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
         <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O595" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P595" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N596" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O596" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P596" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N597" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
         <v>100</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P598" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N599" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O599" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P599" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
         <v>100</v>
       </c>
       <c r="N600" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O600" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P600" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
         <v>100</v>
       </c>
       <c r="N601" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O601" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P601" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N602" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P602" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E603" t="n">
         <v>8</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P603" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E604" t="n">
         <v>8</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N604" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P604" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
         <v>50</v>
       </c>
       <c r="N605" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O605" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E606" t="n">
         <v>8</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M606" t="n">
         <v>50</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O606" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P606" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T606" t="n">
         <v>16</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N607" t="n">
         <v>10000</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>100</v>
       </c>
       <c r="N610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T612" t="n">
         <v>16</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N613" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P613" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T613" t="n">
         <v>16</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
         <v>50</v>
       </c>
       <c r="N614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T614" t="n">
         <v>16</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M615" t="n">
         <v>50</v>
       </c>
       <c r="N615" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P615" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>50</v>
       </c>
       <c r="N616" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E617" t="n">
         <v>8</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
         <v>50</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O617" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P617" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E618" t="n">
         <v>8</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,7 +49804,7 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N618" t="n">
         <v>10000</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44330</v>
+        <v>44342</v>
       </c>
       <c r="E619" t="n">
         <v>8</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,7 +49884,7 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N619" t="n">
         <v>8000</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49967,13 +49967,13 @@
         <v>50</v>
       </c>
       <c r="N620" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O620" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P620" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50047,13 +50047,13 @@
         <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O621" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P621" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O623" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P623" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
         <v>100</v>
       </c>
       <c r="N624" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P624" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T624" t="n">
         <v>16</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
         <v>100</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P625" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T625" t="n">
         <v>16</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
         <v>100</v>
       </c>
       <c r="N626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T626" t="n">
         <v>16</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E627" t="n">
         <v>8</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N627" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O627" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P627" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T627" t="n">
         <v>16</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E628" t="n">
         <v>8</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
         <v>100</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T628" t="n">
         <v>16</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E629" t="n">
         <v>8</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N629" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T629" t="n">
         <v>16</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O630" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P630" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T630" t="n">
         <v>16</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N631" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P631" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T631" t="n">
         <v>16</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N632" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O632" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T632" t="n">
         <v>16</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
         <v>100</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O633" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P633" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="T633" t="n">
         <v>16</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O634" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P634" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T634" t="n">
         <v>16</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N635" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P635" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T635" t="n">
         <v>16</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E636" t="n">
         <v>8</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O636" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P636" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T636" t="n">
         <v>16</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E637" t="n">
         <v>8</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O637" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P637" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>688</v>
+        <v>562</v>
       </c>
       <c r="T637" t="n">
         <v>16</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N638" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P638" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="T638" t="n">
         <v>16</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E639" t="n">
         <v>8</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N639" t="n">
         <v>9000</v>
       </c>
       <c r="O639" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P639" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T639" t="n">
         <v>16</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E640" t="n">
         <v>8</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N640" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O640" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P640" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E641" t="n">
         <v>8</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N641" t="n">
         <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P641" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N642" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O642" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P642" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T642" t="n">
         <v>16</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E643" t="n">
         <v>8</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N643" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O643" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P643" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T643" t="n">
         <v>16</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N644" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O644" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P645" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N646" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O646" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P646" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
         <v>100</v>
       </c>
       <c r="N647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N648" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O648" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T648" t="n">
         <v>16</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E649" t="n">
         <v>8</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N649" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T649" t="n">
         <v>16</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E650" t="n">
         <v>8</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
         <v>100</v>
       </c>
       <c r="N650" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O650" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P650" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T650" t="n">
         <v>16</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E651" t="n">
         <v>8</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N651" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O651" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P651" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T651" t="n">
         <v>16</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P652" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T652" t="n">
         <v>16</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O653" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T653" t="n">
         <v>16</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N654" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O654" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P654" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T654" t="n">
         <v>16</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N655" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P655" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T655" t="n">
         <v>16</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N656" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P656" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T656" t="n">
         <v>16</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E657" t="n">
         <v>8</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O657" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P657" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E658" t="n">
         <v>8</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N658" t="n">
         <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E659" t="n">
         <v>8</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P659" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T659" t="n">
         <v>16</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N660" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O660" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P660" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="T660" t="n">
         <v>16</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E661" t="n">
         <v>8</v>
@@ -53235,12 +53235,12 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
@@ -53250,10 +53250,10 @@
         <v>9000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P661" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T661" t="n">
         <v>16</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E662" t="n">
         <v>8</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O662" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P662" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E663" t="n">
         <v>8</v>
@@ -53395,12 +53395,12 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
@@ -53410,10 +53410,10 @@
         <v>9000</v>
       </c>
       <c r="O663" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P663" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53422,11 +53422,11 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T663" t="n">
         <v>16</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N664" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O664" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N665" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T665" t="n">
         <v>16</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N666" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O666" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P666" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
         <v>50</v>
       </c>
       <c r="N667" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O667" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P667" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T667" t="n">
         <v>16</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N668" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O668" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P668" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T668" t="n">
         <v>16</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E669" t="n">
         <v>8</v>
@@ -53875,41 +53875,41 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N669" t="n">
         <v>8000</v>
       </c>
       <c r="O669" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P669" t="n">
-        <v>8222</v>
+        <v>8000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="T669" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E670" t="n">
         <v>8</v>
@@ -53955,41 +53955,41 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N670" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O670" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P670" t="n">
-        <v>7722</v>
+        <v>10000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>454</v>
+        <v>625</v>
       </c>
       <c r="T670" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E671" t="n">
         <v>8</v>
@@ -54035,41 +54035,41 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N671" t="n">
         <v>8000</v>
       </c>
       <c r="O671" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P671" t="n">
-        <v>8556</v>
+        <v>8000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="T671" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="672">
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
         <v>450</v>
       </c>
       <c r="N672" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O672" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P672" t="n">
-        <v>7278</v>
+        <v>8222</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="T672" t="n">
         <v>17</v>
@@ -54195,40 +54195,280 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M673" t="n">
+        <v>450</v>
+      </c>
+      <c r="N673" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O673" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P673" t="n">
+        <v>7722</v>
+      </c>
+      <c r="Q673" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R673" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S673" t="n">
+        <v>454</v>
+      </c>
+      <c r="T673" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>11</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E674" t="n">
+        <v>8</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M674" t="n">
+        <v>450</v>
+      </c>
+      <c r="N674" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O674" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P674" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q674" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R674" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S674" t="n">
+        <v>503</v>
+      </c>
+      <c r="T674" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>11</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D675" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E675" t="n">
+        <v>8</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G675" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M675" t="n">
+        <v>450</v>
+      </c>
+      <c r="N675" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O675" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P675" t="n">
+        <v>7278</v>
+      </c>
+      <c r="Q675" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R675" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S675" t="n">
+        <v>428</v>
+      </c>
+      <c r="T675" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>11</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D676" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E676" t="n">
+        <v>8</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L673" t="inlineStr">
+      <c r="L676" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M673" t="n">
+      <c r="M676" t="n">
         <v>250</v>
       </c>
-      <c r="N673" t="n">
+      <c r="N676" t="n">
         <v>7000</v>
       </c>
-      <c r="O673" t="n">
+      <c r="O676" t="n">
         <v>7500</v>
       </c>
-      <c r="P673" t="n">
+      <c r="P676" t="n">
         <v>7300</v>
       </c>
-      <c r="Q673" t="inlineStr">
+      <c r="Q676" t="inlineStr">
         <is>
           <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
-      <c r="R673" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S673" t="n">
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
         <v>429</v>
       </c>
-      <c r="T673" t="n">
+      <c r="T676" t="n">
         <v>17</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T679"/>
+  <dimension ref="A1:T683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E633" t="n">
         <v>8</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O633" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P633" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="T633" t="n">
         <v>16</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E634" t="n">
         <v>8</v>
@@ -51084,7 +51084,7 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N634" t="n">
         <v>9000</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N635" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P635" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="T635" t="n">
         <v>16</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E636" t="n">
         <v>8</v>
@@ -51244,7 +51244,7 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N636" t="n">
         <v>9000</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51484,7 +51484,7 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N639" t="n">
         <v>10000</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,7 +51564,7 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N640" t="n">
         <v>9000</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E641" t="n">
         <v>8</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N641" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O641" t="n">
         <v>11000</v>
       </c>
       <c r="P641" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E642" t="n">
         <v>8</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N642" t="n">
         <v>9000</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E643" t="n">
         <v>8</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N643" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
         <v>11000</v>
       </c>
       <c r="P643" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T643" t="n">
         <v>16</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51884,7 +51884,7 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N644" t="n">
         <v>9000</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P645" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E646" t="n">
         <v>8</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N646" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O646" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P646" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E647" t="n">
         <v>8</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N647" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O647" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P647" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E648" t="n">
         <v>8</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T648" t="n">
         <v>16</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E649" t="n">
         <v>8</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E650" t="n">
         <v>8</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52367,13 +52367,13 @@
         <v>100</v>
       </c>
       <c r="N650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T650" t="n">
         <v>16</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E651" t="n">
         <v>8</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E652" t="n">
         <v>8</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N653" t="n">
         <v>9000</v>
       </c>
       <c r="O653" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P653" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T653" t="n">
         <v>16</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E655" t="n">
         <v>8</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E656" t="n">
         <v>8</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E657" t="n">
         <v>8</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
         <v>9000</v>
       </c>
       <c r="O657" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E658" t="n">
         <v>8</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53007,13 +53007,13 @@
         <v>100</v>
       </c>
       <c r="N658" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O658" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P658" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E663" t="n">
         <v>8</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53407,13 +53407,13 @@
         <v>200</v>
       </c>
       <c r="N663" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O663" t="n">
         <v>10000</v>
       </c>
-      <c r="O663" t="n">
-        <v>11000</v>
-      </c>
       <c r="P663" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T663" t="n">
         <v>16</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E664" t="n">
         <v>8</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53487,13 +53487,13 @@
         <v>100</v>
       </c>
       <c r="N664" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O664" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P664" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E665" t="n">
         <v>8</v>
@@ -53567,13 +53567,13 @@
         <v>200</v>
       </c>
       <c r="N665" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O665" t="n">
         <v>10000</v>
       </c>
-      <c r="O665" t="n">
-        <v>11000</v>
-      </c>
       <c r="P665" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T665" t="n">
         <v>16</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E666" t="n">
         <v>8</v>
@@ -53647,13 +53647,13 @@
         <v>100</v>
       </c>
       <c r="N666" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O666" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E667" t="n">
         <v>8</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N667" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O667" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P667" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T667" t="n">
         <v>16</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E668" t="n">
         <v>8</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N668" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O668" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P668" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T668" t="n">
         <v>16</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E669" t="n">
         <v>8</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N669" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O669" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P669" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T669" t="n">
         <v>16</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E670" t="n">
         <v>8</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N670" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O670" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P670" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T670" t="n">
         <v>16</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N673" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O673" t="n">
         <v>10000</v>
       </c>
       <c r="P673" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T673" t="n">
         <v>16</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E675" t="n">
         <v>8</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,32 +54364,32 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N675" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O675" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P675" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T675" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E676" t="n">
         <v>8</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N676" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O676" t="n">
         <v>8000</v>
       </c>
       <c r="P676" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T676" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E677" t="n">
         <v>8</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,32 +54524,32 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N677" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O677" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P677" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>503</v>
+        <v>625</v>
       </c>
       <c r="T677" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E678" t="n">
         <v>8</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,32 +54604,32 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N678" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O678" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P678" t="n">
-        <v>7278</v>
+        <v>8000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T678" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
@@ -54675,40 +54675,360 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>450</v>
+      </c>
+      <c r="N679" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P679" t="n">
+        <v>8222</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>484</v>
+      </c>
+      <c r="T679" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>11</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E680" t="n">
+        <v>8</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>450</v>
+      </c>
+      <c r="N680" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O680" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P680" t="n">
+        <v>7722</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>454</v>
+      </c>
+      <c r="T680" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>11</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E681" t="n">
+        <v>8</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>450</v>
+      </c>
+      <c r="N681" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P681" t="n">
+        <v>8556</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>503</v>
+      </c>
+      <c r="T681" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>11</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E682" t="n">
+        <v>8</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>450</v>
+      </c>
+      <c r="N682" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O682" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P682" t="n">
+        <v>7278</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/caja 17 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>428</v>
+      </c>
+      <c r="T682" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>11</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E683" t="n">
+        <v>8</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L679" t="inlineStr">
+      <c r="L683" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M679" t="n">
+      <c r="M683" t="n">
         <v>250</v>
       </c>
-      <c r="N679" t="n">
+      <c r="N683" t="n">
         <v>7000</v>
       </c>
-      <c r="O679" t="n">
+      <c r="O683" t="n">
         <v>7500</v>
       </c>
-      <c r="P679" t="n">
+      <c r="P683" t="n">
         <v>7300</v>
       </c>
-      <c r="Q679" t="inlineStr">
+      <c r="Q683" t="inlineStr">
         <is>
           <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
-      <c r="R679" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S679" t="n">
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S683" t="n">
         <v>429</v>
       </c>
-      <c r="T679" t="n">
+      <c r="T683" t="n">
         <v>17</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T683"/>
+  <dimension ref="A1:T685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44446</v>
+        <v>44518</v>
       </c>
       <c r="E454" t="n">
         <v>8</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36687,13 +36687,13 @@
         <v>200</v>
       </c>
       <c r="N454" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O454" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P454" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44446</v>
+        <v>44518</v>
       </c>
       <c r="E455" t="n">
         <v>8</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36767,13 +36767,13 @@
         <v>100</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44463</v>
+        <v>44446</v>
       </c>
       <c r="E458" t="n">
         <v>8</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44463</v>
+        <v>44446</v>
       </c>
       <c r="E459" t="n">
         <v>8</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,7 +37164,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N460" t="n">
         <v>9000</v>
@@ -37173,7 +37173,7 @@
         <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>9333</v>
+        <v>9500</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N461" t="n">
         <v>8000</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N462" t="n">
         <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>9000</v>
+        <v>9333</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,7 +37404,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N463" t="n">
         <v>8000</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44323</v>
+        <v>44463</v>
       </c>
       <c r="E464" t="n">
         <v>8</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N464" t="n">
         <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44323</v>
+        <v>44463</v>
       </c>
       <c r="E465" t="n">
         <v>8</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N466" t="n">
         <v>9000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N467" t="n">
         <v>8000</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44342</v>
+        <v>44323</v>
       </c>
       <c r="E472" t="n">
         <v>8</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
         <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44342</v>
+        <v>44323</v>
       </c>
       <c r="E473" t="n">
         <v>8</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N477" t="n">
         <v>10000</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N478" t="n">
         <v>8000</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44462</v>
+        <v>44342</v>
       </c>
       <c r="E483" t="n">
         <v>8</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N483" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
         <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44462</v>
+        <v>44342</v>
       </c>
       <c r="E484" t="n">
         <v>8</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N487" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O487" t="n">
         <v>10000</v>
       </c>
-      <c r="O487" t="n">
-        <v>11000</v>
-      </c>
       <c r="P487" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,7 +39804,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N493" t="n">
         <v>10000</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,7 +39884,7 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N494" t="n">
         <v>9000</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E495" t="n">
         <v>8</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N495" t="n">
         <v>10000</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E496" t="n">
         <v>8</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
         <v>9000</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44195</v>
+        <v>44299</v>
       </c>
       <c r="E501" t="n">
         <v>8</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O501" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P501" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>781</v>
+        <v>656</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44195</v>
+        <v>44299</v>
       </c>
       <c r="E502" t="n">
         <v>8</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N503" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E512" t="n">
         <v>8</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41330,10 +41330,10 @@
         <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E513" t="n">
         <v>8</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P513" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E518" t="n">
         <v>8</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N518" t="n">
         <v>9000</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E519" t="n">
         <v>8</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N519" t="n">
         <v>8000</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,7 +42124,7 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N522" t="n">
         <v>9000</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,7 +42204,7 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N523" t="n">
         <v>8000</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42604,7 +42604,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N528" t="n">
         <v>9000</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N529" t="n">
         <v>8000</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E536" t="n">
         <v>8</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43247,13 +43247,13 @@
         <v>200</v>
       </c>
       <c r="N536" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P536" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E537" t="n">
         <v>8</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43327,13 +43327,13 @@
         <v>100</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43407,13 +43407,13 @@
         <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43487,13 +43487,13 @@
         <v>100</v>
       </c>
       <c r="N539" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N542" t="n">
         <v>9000</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,7 +43804,7 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N543" t="n">
         <v>8000</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E544" t="n">
         <v>8</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N545" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P545" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N546" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O546" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P546" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44207,13 +44207,13 @@
         <v>100</v>
       </c>
       <c r="N548" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E551" t="n">
         <v>8</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
         <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E552" t="n">
         <v>8</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E557" t="n">
         <v>8</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E558" t="n">
         <v>8</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E563" t="n">
         <v>8</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N563" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O563" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E564" t="n">
         <v>8</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
         <v>100</v>
       </c>
       <c r="N564" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O564" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P564" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N565" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P565" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P566" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
         <v>100</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N568" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P568" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E571" t="n">
         <v>8</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46047,13 +46047,13 @@
         <v>100</v>
       </c>
       <c r="N571" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O571" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P571" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E572" t="n">
         <v>8</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P572" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O573" t="n">
         <v>9000</v>
       </c>
       <c r="P573" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E579" t="n">
         <v>8</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N579" t="n">
         <v>9000</v>
       </c>
       <c r="O579" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P579" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E580" t="n">
         <v>8</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N580" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O580" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P580" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E587" t="n">
         <v>8</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,20 +47324,20 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O587" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P587" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
@@ -47346,10 +47346,10 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T587" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E588" t="n">
         <v>8</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,20 +47404,20 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N588" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O588" t="n">
         <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
@@ -47426,10 +47426,10 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T588" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="589">
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47490,10 +47490,10 @@
         <v>8000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P589" t="n">
-        <v>8556</v>
+        <v>8222</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="T589" t="n">
         <v>17</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47567,13 +47567,13 @@
         <v>450</v>
       </c>
       <c r="N590" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O590" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>7278</v>
+        <v>7722</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="T590" t="n">
         <v>17</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N591" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O591" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>7300</v>
+        <v>8556</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="T591" t="n">
         <v>17</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E592" t="n">
         <v>8</v>
@@ -47720,24 +47720,24 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N592" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O592" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P592" t="n">
-        <v>10500</v>
+        <v>7278</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>656</v>
+        <v>428</v>
       </c>
       <c r="T592" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E593" t="n">
         <v>8</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,20 +47804,20 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N593" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O593" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P593" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
@@ -47826,10 +47826,10 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="T593" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="594">
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E598" t="n">
         <v>8</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48207,13 +48207,13 @@
         <v>200</v>
       </c>
       <c r="N598" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O598" t="n">
         <v>11000</v>
       </c>
-      <c r="O598" t="n">
-        <v>12000</v>
-      </c>
       <c r="P598" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E599" t="n">
         <v>8</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48287,13 +48287,13 @@
         <v>100</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O599" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P599" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E602" t="n">
         <v>8</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N602" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O602" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P602" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E603" t="n">
         <v>8</v>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E606" t="n">
         <v>8</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N606" t="n">
         <v>9000</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N607" t="n">
         <v>8000</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E610" t="n">
         <v>8</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E611" t="n">
         <v>8</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E616" t="n">
         <v>8</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N616" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E617" t="n">
         <v>8</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
         <v>100</v>
       </c>
       <c r="N617" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O617" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P617" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M618" t="n">
         <v>100</v>
       </c>
       <c r="N618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
         <v>100</v>
       </c>
       <c r="N619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
         <v>100</v>
       </c>
       <c r="N620" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O620" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P620" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M621" t="n">
         <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O621" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P621" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E622" t="n">
         <v>8</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50130,10 +50130,10 @@
         <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E623" t="n">
         <v>8</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E626" t="n">
         <v>8</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
         <v>100</v>
       </c>
       <c r="N626" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P626" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="T626" t="n">
         <v>16</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E627" t="n">
         <v>8</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N627" t="n">
         <v>9000</v>
       </c>
       <c r="O627" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P627" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T627" t="n">
         <v>16</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E628" t="n">
         <v>8</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50607,13 +50607,13 @@
         <v>100</v>
       </c>
       <c r="N628" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O628" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P628" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T628" t="n">
         <v>16</v>
@@ -50675,7 +50675,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50915,7 +50915,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E633" t="n">
         <v>8</v>
@@ -50995,29 +50995,29 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N633" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O633" t="n">
         <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>9773</v>
+        <v>9500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
@@ -51026,10 +51026,10 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="T633" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E634" t="n">
         <v>8</v>
@@ -51075,29 +51075,29 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N634" t="n">
         <v>8000</v>
       </c>
       <c r="O634" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P634" t="n">
-        <v>8269</v>
+        <v>8000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51106,10 +51106,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="T634" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="635">
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="N635" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="O635" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P635" t="n">
-        <v>6759</v>
+        <v>9773</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>451</v>
+        <v>652</v>
       </c>
       <c r="T635" t="n">
         <v>15</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E636" t="n">
         <v>8</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,20 +51244,20 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N636" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O636" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P636" t="n">
-        <v>10500</v>
+        <v>8269</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
@@ -51266,10 +51266,10 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>656</v>
+        <v>551</v>
       </c>
       <c r="T636" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E637" t="n">
         <v>8</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,20 +51324,20 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N637" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O637" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P637" t="n">
-        <v>9000</v>
+        <v>6759</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
@@ -51346,10 +51346,10 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>562</v>
+        <v>451</v>
       </c>
       <c r="T637" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="638">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E640" t="n">
         <v>8</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N640" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P640" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E641" t="n">
         <v>8</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N642" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O642" t="n">
         <v>10000</v>
       </c>
       <c r="P642" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T642" t="n">
         <v>16</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51807,13 +51807,13 @@
         <v>50</v>
       </c>
       <c r="N643" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O643" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P643" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T643" t="n">
         <v>16</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E644" t="n">
         <v>8</v>
@@ -51875,7 +51875,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E645" t="n">
         <v>8</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N645" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O645" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P645" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N648" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O648" t="n">
         <v>9000</v>
       </c>
       <c r="P648" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T648" t="n">
         <v>16</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E654" t="n">
         <v>8</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T654" t="n">
         <v>16</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E655" t="n">
         <v>8</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
         <v>100</v>
       </c>
       <c r="N655" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P655" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>625</v>
+        <v>438</v>
       </c>
       <c r="T655" t="n">
         <v>16</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T656" t="n">
         <v>16</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O657" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P657" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M658" t="n">
         <v>100</v>
       </c>
       <c r="N658" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O658" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P658" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N659" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O659" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T659" t="n">
         <v>16</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53327,13 +53327,13 @@
         <v>100</v>
       </c>
       <c r="N662" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O662" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P662" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E664" t="n">
         <v>8</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N664" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
         <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E665" t="n">
         <v>8</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53635,7 +53635,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E668" t="n">
         <v>8</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E669" t="n">
         <v>8</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E676" t="n">
         <v>8</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54447,13 +54447,13 @@
         <v>200</v>
       </c>
       <c r="N676" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O676" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P676" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T676" t="n">
         <v>16</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E677" t="n">
         <v>8</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54527,13 +54527,13 @@
         <v>100</v>
       </c>
       <c r="N677" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O677" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P677" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T677" t="n">
         <v>16</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N680" t="n">
         <v>8000</v>
       </c>
       <c r="O680" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P680" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T680" t="n">
         <v>16</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55029,6 +55029,166 @@
         <v>438</v>
       </c>
       <c r="T683" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>11</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E684" t="n">
+        <v>8</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M684" t="n">
+        <v>100</v>
+      </c>
+      <c r="N684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q684" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S684" t="n">
+        <v>500</v>
+      </c>
+      <c r="T684" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>11</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E685" t="n">
+        <v>8</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M685" t="n">
+        <v>100</v>
+      </c>
+      <c r="N685" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O685" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P685" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q685" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S685" t="n">
+        <v>438</v>
+      </c>
+      <c r="T685" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T685"/>
+  <dimension ref="A1:T689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E485" t="n">
         <v>8</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="N485" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>9500</v>
+        <v>10483</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E486" t="n">
         <v>8</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N486" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O486" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P486" t="n">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E487" t="n">
         <v>8</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="N487" t="n">
         <v>9000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P487" t="n">
-        <v>9500</v>
+        <v>9259</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N488" t="n">
         <v>8000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E489" t="n">
         <v>8</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N489" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O489" t="n">
         <v>10000</v>
       </c>
-      <c r="O489" t="n">
-        <v>11000</v>
-      </c>
       <c r="P489" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E490" t="n">
         <v>8</v>
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P490" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E491" t="n">
         <v>8</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N491" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O491" t="n">
         <v>10000</v>
       </c>
-      <c r="O491" t="n">
-        <v>11000</v>
-      </c>
       <c r="P491" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44295</v>
+        <v>44462</v>
       </c>
       <c r="E492" t="n">
         <v>8</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N495" t="n">
         <v>10000</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N496" t="n">
         <v>9000</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E497" t="n">
         <v>8</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N497" t="n">
         <v>10000</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E498" t="n">
         <v>8</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N498" t="n">
         <v>9000</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E499" t="n">
         <v>8</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,7 +40284,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N499" t="n">
         <v>10000</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E500" t="n">
         <v>8</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,7 +40364,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N500" t="n">
         <v>9000</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44195</v>
+        <v>44299</v>
       </c>
       <c r="E503" t="n">
         <v>8</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P503" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>781</v>
+        <v>656</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44195</v>
+        <v>44299</v>
       </c>
       <c r="E504" t="n">
         <v>8</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44376</v>
+        <v>44299</v>
       </c>
       <c r="E505" t="n">
         <v>8</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N505" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O505" t="n">
         <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44376</v>
+        <v>44299</v>
       </c>
       <c r="E506" t="n">
         <v>8</v>
@@ -40835,16 +40835,16 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N506" t="n">
         <v>9000</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E507" t="n">
         <v>8</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
         <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>438</v>
+        <v>781</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E508" t="n">
         <v>8</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O509" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P509" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E514" t="n">
         <v>8</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41490,10 +41490,10 @@
         <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P514" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E515" t="n">
         <v>8</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N515" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O515" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P515" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E516" t="n">
         <v>8</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41650,10 +41650,10 @@
         <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P516" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44474</v>
+        <v>44376</v>
       </c>
       <c r="E517" t="n">
         <v>8</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N517" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P517" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E520" t="n">
         <v>8</v>
@@ -41964,7 +41964,7 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
         <v>9000</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E521" t="n">
         <v>8</v>
@@ -42044,7 +42044,7 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N521" t="n">
         <v>8000</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E522" t="n">
         <v>8</v>
@@ -42124,7 +42124,7 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N522" t="n">
         <v>9000</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
@@ -42204,7 +42204,7 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N523" t="n">
         <v>8000</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E524" t="n">
         <v>8</v>
@@ -42284,7 +42284,7 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N524" t="n">
         <v>9000</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E525" t="n">
         <v>8</v>
@@ -42364,7 +42364,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N525" t="n">
         <v>8000</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E526" t="n">
         <v>8</v>
@@ -42444,7 +42444,7 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N526" t="n">
         <v>9000</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44426</v>
+        <v>44421</v>
       </c>
       <c r="E527" t="n">
         <v>8</v>
@@ -42524,7 +42524,7 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N527" t="n">
         <v>8000</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E528" t="n">
         <v>8</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E529" t="n">
         <v>8</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E530" t="n">
         <v>8</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,7 +42764,7 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N530" t="n">
         <v>9000</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E531" t="n">
         <v>8</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,7 +42844,7 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N531" t="n">
         <v>8000</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N532" t="n">
         <v>9000</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E533" t="n">
         <v>8</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,7 +43004,7 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N533" t="n">
         <v>8000</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E538" t="n">
         <v>8</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43407,13 +43407,13 @@
         <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E539" t="n">
         <v>8</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43487,13 +43487,13 @@
         <v>100</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44441</v>
+        <v>44362</v>
       </c>
       <c r="E540" t="n">
         <v>8</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44441</v>
+        <v>44362</v>
       </c>
       <c r="E541" t="n">
         <v>8</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E542" t="n">
         <v>8</v>
@@ -43727,13 +43727,13 @@
         <v>200</v>
       </c>
       <c r="N542" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
@@ -43807,13 +43807,13 @@
         <v>100</v>
       </c>
       <c r="N543" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O543" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,7 +43884,7 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N544" t="n">
         <v>9000</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,7 +43964,7 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N545" t="n">
         <v>8000</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E546" t="n">
         <v>8</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N546" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E547" t="n">
         <v>8</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
         <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P547" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E548" t="n">
         <v>8</v>
@@ -44195,12 +44195,12 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
@@ -44210,10 +44210,10 @@
         <v>9000</v>
       </c>
       <c r="O548" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P548" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N549" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O549" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P549" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44527,13 +44527,13 @@
         <v>100</v>
       </c>
       <c r="N552" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O552" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P552" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E553" t="n">
         <v>8</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N553" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O553" t="n">
         <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E554" t="n">
         <v>8</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E555" t="n">
         <v>8</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N555" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O555" t="n">
         <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E556" t="n">
         <v>8</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E559" t="n">
         <v>8</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E560" t="n">
         <v>8</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E561" t="n">
         <v>8</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E565" t="n">
         <v>8</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N565" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O565" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E566" t="n">
         <v>8</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
         <v>100</v>
       </c>
       <c r="N566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E567" t="n">
         <v>8</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N567" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N568" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O568" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P568" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
         <v>100</v>
       </c>
       <c r="N570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
         <v>100</v>
       </c>
       <c r="N571" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O571" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P571" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N572" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O572" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P572" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E573" t="n">
         <v>8</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46207,13 +46207,13 @@
         <v>100</v>
       </c>
       <c r="N573" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E574" t="n">
         <v>8</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P574" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E575" t="n">
         <v>8</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E576" t="n">
         <v>8</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N577" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O577" t="n">
         <v>9000</v>
       </c>
       <c r="P577" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E581" t="n">
         <v>8</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N581" t="n">
         <v>9000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P581" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E582" t="n">
         <v>8</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N582" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O582" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P582" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E583" t="n">
         <v>8</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N583" t="n">
         <v>9000</v>
       </c>
       <c r="O583" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P583" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E584" t="n">
         <v>8</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E589" t="n">
         <v>8</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,20 +47484,20 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>8222</v>
+        <v>9500</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
@@ -47506,10 +47506,10 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="T589" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E590" t="n">
         <v>8</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,20 +47564,20 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O590" t="n">
         <v>8000</v>
       </c>
       <c r="P590" t="n">
-        <v>7722</v>
+        <v>8000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
@@ -47586,10 +47586,10 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="T590" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E591" t="n">
         <v>8</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,20 +47644,20 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N591" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O591" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P591" t="n">
-        <v>8556</v>
+        <v>9500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>503</v>
+        <v>594</v>
       </c>
       <c r="T591" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44491</v>
+        <v>44329</v>
       </c>
       <c r="E592" t="n">
         <v>8</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,20 +47724,20 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N592" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P592" t="n">
-        <v>7278</v>
+        <v>8000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T592" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593">
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N593" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O593" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P593" t="n">
-        <v>7300</v>
+        <v>8222</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="T593" t="n">
         <v>17</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E594" t="n">
         <v>8</v>
@@ -47875,29 +47875,29 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N594" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O594" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P594" t="n">
-        <v>10500</v>
+        <v>7722</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
@@ -47906,10 +47906,10 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>656</v>
+        <v>454</v>
       </c>
       <c r="T594" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E595" t="n">
         <v>8</v>
@@ -47960,24 +47960,24 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N595" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O595" t="n">
         <v>9000</v>
       </c>
       <c r="P595" t="n">
-        <v>9000</v>
+        <v>8556</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
@@ -47986,10 +47986,10 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>562</v>
+        <v>503</v>
       </c>
       <c r="T595" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E596" t="n">
         <v>8</v>
@@ -48035,29 +48035,29 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N596" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O596" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P596" t="n">
-        <v>10500</v>
+        <v>7278</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
@@ -48066,10 +48066,10 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>656</v>
+        <v>428</v>
       </c>
       <c r="T596" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="597">
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E597" t="n">
         <v>8</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,20 +48124,20 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N597" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O597" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P597" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
@@ -48146,10 +48146,10 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="T597" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="598">
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48327,7 +48327,7 @@
     